--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.78154043520307</v>
+        <v>17.78154043520304</v>
       </c>
       <c r="C2">
-        <v>13.95324219757662</v>
+        <v>13.95324219757669</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.84786922105511</v>
+        <v>10.84786922105512</v>
       </c>
       <c r="F2">
         <v>30.89578088110429</v>
@@ -430,13 +430,13 @@
         <v>20.02393034138506</v>
       </c>
       <c r="H2">
-        <v>16.66805884885707</v>
+        <v>16.66805884885708</v>
       </c>
       <c r="I2">
-        <v>8.474763967341282</v>
+        <v>8.474763967341397</v>
       </c>
       <c r="J2">
-        <v>16.34701117651576</v>
+        <v>16.34701117651575</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.58210967870646</v>
+        <v>16.58210967870647</v>
       </c>
       <c r="C3">
-        <v>12.9918742222318</v>
+        <v>12.99187422223152</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09304258938505</v>
+        <v>10.09304258938509</v>
       </c>
       <c r="F3">
-        <v>28.96566427461906</v>
+        <v>28.96566427461907</v>
       </c>
       <c r="G3">
-        <v>19.44042365135147</v>
+        <v>19.44042365135157</v>
       </c>
       <c r="H3">
-        <v>16.49903797536724</v>
+        <v>16.49903797536723</v>
       </c>
       <c r="I3">
-        <v>8.663183078164845</v>
+        <v>8.663183078164888</v>
       </c>
       <c r="J3">
-        <v>15.28165165269979</v>
+        <v>15.28165165269971</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.7179278719899</v>
+        <v>15.71792787198988</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80587054118229</v>
+        <v>15.80587054118226</v>
       </c>
       <c r="C4">
-        <v>12.37118288620265</v>
+        <v>12.37118288620282</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.604954881289059</v>
+        <v>9.604954881288975</v>
       </c>
       <c r="F4">
-        <v>27.74487394793274</v>
+        <v>27.74487394793278</v>
       </c>
       <c r="G4">
-        <v>19.10162278056034</v>
+        <v>19.10162278056033</v>
       </c>
       <c r="H4">
-        <v>16.41693023333168</v>
+        <v>16.41693023333172</v>
       </c>
       <c r="I4">
-        <v>8.782801701839011</v>
+        <v>8.782801701839061</v>
       </c>
       <c r="J4">
-        <v>14.59369470633088</v>
+        <v>14.59369470633095</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.02569885085039</v>
+        <v>15.02569885085037</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47944311967536</v>
+        <v>15.47944311967528</v>
       </c>
       <c r="C5">
-        <v>12.11049798578082</v>
+        <v>12.11049798578097</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.399790763385676</v>
+        <v>9.399790763385694</v>
       </c>
       <c r="F5">
-        <v>27.23877104001601</v>
+        <v>27.23877104001604</v>
       </c>
       <c r="G5">
-        <v>18.96843047689488</v>
+        <v>18.96843047689496</v>
       </c>
       <c r="H5">
-        <v>16.38864960640364</v>
+        <v>16.38864960640377</v>
       </c>
       <c r="I5">
-        <v>8.832517261771804</v>
+        <v>8.832517261771839</v>
       </c>
       <c r="J5">
-        <v>14.30477787527704</v>
+        <v>14.30477787527701</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.73520749824679</v>
+        <v>14.73520749824678</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.42462711586882</v>
+        <v>15.42462711586878</v>
       </c>
       <c r="C6">
-        <v>12.06674066055401</v>
+        <v>12.06674066055394</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.365342989463308</v>
+        <v>9.365342989463384</v>
       </c>
       <c r="F6">
-        <v>27.15422502809963</v>
+        <v>27.15422502809958</v>
       </c>
       <c r="G6">
-        <v>18.94660726116426</v>
+        <v>18.9466072611643</v>
       </c>
       <c r="H6">
-        <v>16.3842583735614</v>
+        <v>16.38425837356137</v>
       </c>
       <c r="I6">
-        <v>8.840830661271088</v>
+        <v>8.84083066127114</v>
       </c>
       <c r="J6">
-        <v>14.25628434334988</v>
+        <v>14.25628434334985</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.68646318217917</v>
+        <v>14.6864631821792</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80150926183128</v>
+        <v>15.80150926183115</v>
       </c>
       <c r="C7">
-        <v>12.36769869961515</v>
+        <v>12.36769869961533</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.602213425055378</v>
+        <v>9.602213425055389</v>
       </c>
       <c r="F7">
-        <v>27.73808281848716</v>
+        <v>27.73808281848714</v>
       </c>
       <c r="G7">
-        <v>19.09980681886402</v>
+        <v>19.09980681886407</v>
       </c>
       <c r="H7">
-        <v>16.41652822442001</v>
+        <v>16.41652822442007</v>
       </c>
       <c r="I7">
-        <v>8.783468275276823</v>
+        <v>8.783468275276919</v>
       </c>
       <c r="J7">
-        <v>14.58983304154595</v>
+        <v>14.58983304154594</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.02181525060826</v>
+        <v>15.02181525060825</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37617094434725</v>
+        <v>17.37617094434717</v>
       </c>
       <c r="C8">
-        <v>13.62800966232056</v>
+        <v>13.62800966232064</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.59266982079838</v>
+        <v>10.5926698207984</v>
       </c>
       <c r="F8">
-        <v>30.23786066172671</v>
+        <v>30.2378606617267</v>
       </c>
       <c r="G8">
-        <v>19.81868292799606</v>
+        <v>19.81868292799611</v>
       </c>
       <c r="H8">
-        <v>16.6051220621559</v>
+        <v>16.60512206215603</v>
       </c>
       <c r="I8">
-        <v>8.538902907751332</v>
+        <v>8.538902907751387</v>
       </c>
       <c r="J8">
-        <v>15.98665175295604</v>
+        <v>15.98665175295603</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.42800194926985</v>
+        <v>16.42800194926987</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>20.15339505655469</v>
       </c>
       <c r="C9">
-        <v>15.86324850206368</v>
+        <v>15.86324850206371</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.34310623090393</v>
+        <v>12.34310623090389</v>
       </c>
       <c r="F9">
-        <v>34.92526817596905</v>
+        <v>34.92526817596909</v>
       </c>
       <c r="G9">
-        <v>21.38384492885214</v>
+        <v>21.3838449288521</v>
       </c>
       <c r="H9">
-        <v>17.15859823956848</v>
+        <v>17.15859823956841</v>
       </c>
       <c r="I9">
-        <v>8.091648257376063</v>
+        <v>8.091648257375999</v>
       </c>
       <c r="J9">
         <v>18.46111522144108</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.92483807645062</v>
+        <v>18.92483807645059</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01207153268023</v>
+        <v>22.01207153268015</v>
       </c>
       <c r="C10">
-        <v>17.36918293143764</v>
+        <v>17.36918293143769</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.51742326760096</v>
+        <v>13.51742326760091</v>
       </c>
       <c r="F10">
-        <v>38.33919849095294</v>
+        <v>38.33919849095282</v>
       </c>
       <c r="G10">
-        <v>22.63030584179322</v>
+        <v>22.63030584179325</v>
       </c>
       <c r="H10">
-        <v>17.69265364115725</v>
+        <v>17.69265364115733</v>
       </c>
       <c r="I10">
-        <v>7.785123661526064</v>
+        <v>7.785123661526026</v>
       </c>
       <c r="J10">
-        <v>20.12389440744881</v>
+        <v>20.12389440744877</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.60577704499584</v>
+        <v>20.60577704499577</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.82006085621103</v>
+        <v>22.82006085621093</v>
       </c>
       <c r="C11">
-        <v>18.02659270783018</v>
+        <v>18.02659270783004</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.02864678543089</v>
+        <v>14.02864678543091</v>
       </c>
       <c r="F11">
-        <v>39.84085223322221</v>
+        <v>39.84085223322212</v>
       </c>
       <c r="G11">
-        <v>23.21901942801195</v>
+        <v>23.21901942801198</v>
       </c>
       <c r="H11">
-        <v>17.96648079650463</v>
+        <v>17.96648079650471</v>
       </c>
       <c r="I11">
-        <v>7.651281243953377</v>
+        <v>7.651281243953559</v>
       </c>
       <c r="J11">
-        <v>20.84827353264219</v>
+        <v>20.8482735326421</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.33867642466945</v>
+        <v>21.3386764246694</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.12080222160716</v>
+        <v>23.12080222160715</v>
       </c>
       <c r="C12">
-        <v>18.27173846425723</v>
+        <v>18.27173846425731</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.2190429263511</v>
+        <v>14.21904292635108</v>
       </c>
       <c r="F12">
-        <v>40.40239152759997</v>
+        <v>40.40239152759993</v>
       </c>
       <c r="G12">
-        <v>23.44516235632557</v>
+        <v>23.4451623563255</v>
       </c>
       <c r="H12">
-        <v>18.07487415643684</v>
+        <v>18.07487415643678</v>
       </c>
       <c r="I12">
-        <v>7.601499512884809</v>
+        <v>7.601499512884785</v>
       </c>
       <c r="J12">
-        <v>21.1181276506301</v>
+        <v>21.11812765063011</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.61178627423499</v>
+        <v>21.61178627423497</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.05626174592173</v>
+        <v>23.05626174592163</v>
       </c>
       <c r="C13">
         <v>18.21910801103615</v>
@@ -839,28 +839,28 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.17817784626017</v>
+        <v>14.17817784626022</v>
       </c>
       <c r="F13">
-        <v>40.28176481746836</v>
+        <v>40.28176481746834</v>
       </c>
       <c r="G13">
-        <v>23.39631380986521</v>
+        <v>23.39631380986522</v>
       </c>
       <c r="H13">
-        <v>18.05131643682009</v>
+        <v>18.05131643682014</v>
       </c>
       <c r="I13">
-        <v>7.612178973649105</v>
+        <v>7.61217897364916</v>
       </c>
       <c r="J13">
-        <v>21.06020512604609</v>
+        <v>21.06020512604603</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.55316138570731</v>
+        <v>21.5531613857073</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.84490674188739</v>
+        <v>22.84490674188737</v>
       </c>
       <c r="C14">
-        <v>18.04683610887005</v>
+        <v>18.04683610886999</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.0443741123877</v>
+        <v>14.04437411238774</v>
       </c>
       <c r="F14">
-        <v>39.88719095825029</v>
+        <v>39.88719095825025</v>
       </c>
       <c r="G14">
-        <v>23.23755935510495</v>
+        <v>23.23755935510491</v>
       </c>
       <c r="H14">
         <v>17.97530266292616</v>
       </c>
       <c r="I14">
-        <v>7.647166953445195</v>
+        <v>7.647166953445258</v>
       </c>
       <c r="J14">
-        <v>20.87056288491926</v>
+        <v>20.87056288491921</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71477038412066</v>
+        <v>22.71477038412059</v>
       </c>
       <c r="C15">
         <v>17.94082508398932</v>
@@ -915,28 +915,28 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.96200309608666</v>
+        <v>13.96200309608668</v>
       </c>
       <c r="F15">
-        <v>39.64458728699952</v>
+        <v>39.64458728699945</v>
       </c>
       <c r="G15">
         <v>23.14073903235657</v>
       </c>
       <c r="H15">
-        <v>17.92936202913127</v>
+        <v>17.9293620291313</v>
       </c>
       <c r="I15">
-        <v>7.668718829463403</v>
+        <v>7.668718829463386</v>
       </c>
       <c r="J15">
-        <v>20.75382654780794</v>
+        <v>20.75382654780791</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.24310006012244</v>
+        <v>21.24310006012241</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>21.95852647390042</v>
       </c>
       <c r="C16">
-        <v>17.32567783116688</v>
+        <v>17.32567783116678</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.48356049900911</v>
+        <v>13.4835604990091</v>
       </c>
       <c r="F16">
-        <v>38.24005100181554</v>
+        <v>38.24005100181551</v>
       </c>
       <c r="G16">
-        <v>22.59227541935832</v>
+        <v>22.59227541935834</v>
       </c>
       <c r="H16">
-        <v>17.6754019792672</v>
+        <v>17.67540197926722</v>
       </c>
       <c r="I16">
-        <v>7.79399087214839</v>
+        <v>7.793990872148418</v>
       </c>
       <c r="J16">
-        <v>20.07592270577436</v>
+        <v>20.07592270577433</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.55725304004426</v>
+        <v>20.55725304004423</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48509850694506</v>
+        <v>21.48509850694509</v>
       </c>
       <c r="C17">
-        <v>16.94134234080221</v>
+        <v>16.94134234080219</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.18424209954967</v>
+        <v>13.18424209954961</v>
       </c>
       <c r="F17">
-        <v>37.36543928082243</v>
+        <v>37.36543928082248</v>
       </c>
       <c r="G17">
-        <v>22.26141964501648</v>
+        <v>22.26141964501656</v>
       </c>
       <c r="H17">
-        <v>17.52769959820414</v>
+        <v>17.52769959820417</v>
       </c>
       <c r="I17">
-        <v>7.872335494275479</v>
+        <v>7.872335494275466</v>
       </c>
       <c r="J17">
-        <v>19.65195068143678</v>
+        <v>19.65195068143679</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.1284685789019</v>
+        <v>20.12846857890189</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.20925142752448</v>
+        <v>21.2092514275245</v>
       </c>
       <c r="C18">
-        <v>16.71766895920139</v>
+        <v>16.71766895920138</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.00991195900453</v>
+        <v>13.00991195900451</v>
       </c>
       <c r="F18">
-        <v>36.85753079373875</v>
+        <v>36.85753079373877</v>
       </c>
       <c r="G18">
         <v>22.07315454188954</v>
       </c>
       <c r="H18">
-        <v>17.44563635220035</v>
+        <v>17.44563635220036</v>
       </c>
       <c r="I18">
-        <v>7.917916896752862</v>
+        <v>7.917916896752864</v>
       </c>
       <c r="J18">
-        <v>19.40506837007435</v>
+        <v>19.40506837007439</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.87884309648366</v>
+        <v>19.87884309648367</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,7 +1061,7 @@
         <v>21.11524076905202</v>
       </c>
       <c r="C19">
-        <v>16.6414830512504</v>
+        <v>16.64148305125047</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>12.95051081577433</v>
       </c>
       <c r="F19">
-        <v>36.68472031024657</v>
+        <v>36.68472031024659</v>
       </c>
       <c r="G19">
-        <v>22.00975845999206</v>
+        <v>22.00975845999202</v>
       </c>
       <c r="H19">
-        <v>17.41833985135008</v>
+        <v>17.41833985135001</v>
       </c>
       <c r="I19">
-        <v>7.933436700928242</v>
+        <v>7.933436700928216</v>
       </c>
       <c r="J19">
         <v>19.32095438662115</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.79380484193022</v>
+        <v>19.79380484193025</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53586131487192</v>
+        <v>21.53586131487191</v>
       </c>
       <c r="C20">
-        <v>16.98252481865881</v>
+        <v>16.98252481865886</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.21632887753597</v>
+        <v>13.216328877536</v>
       </c>
       <c r="F20">
-        <v>37.45904382180487</v>
+        <v>37.45904382180489</v>
       </c>
       <c r="G20">
-        <v>22.29642871918587</v>
+        <v>22.29642871918579</v>
       </c>
       <c r="H20">
-        <v>17.54312166290117</v>
+        <v>17.54312166290109</v>
       </c>
       <c r="I20">
-        <v>7.863941177366065</v>
+        <v>7.863941177365994</v>
       </c>
       <c r="J20">
-        <v>19.69739523527722</v>
+        <v>19.69739523527725</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.17442291703659</v>
+        <v>20.17442291703662</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.90712723616781</v>
+        <v>22.90712723616779</v>
       </c>
       <c r="C21">
-        <v>18.09753821762626</v>
+        <v>18.09753821762613</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1146,25 +1146,25 @@
         <v>14.08376123628609</v>
       </c>
       <c r="F21">
-        <v>40.00327712495677</v>
+        <v>40.00327712495675</v>
       </c>
       <c r="G21">
-        <v>23.28410135703124</v>
+        <v>23.28410135703125</v>
       </c>
       <c r="H21">
-        <v>17.99750007240063</v>
+        <v>17.99750007240062</v>
       </c>
       <c r="I21">
-        <v>7.636864764329203</v>
+        <v>7.63686476432918</v>
       </c>
       <c r="J21">
-        <v>20.92638493516608</v>
+        <v>20.92638493516604</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.41772587021915</v>
+        <v>21.41772587021912</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.77295576280473</v>
+        <v>23.77295576280489</v>
       </c>
       <c r="C22">
-        <v>18.80420347762831</v>
+        <v>18.80420347762825</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.63212562015621</v>
+        <v>14.6321256201563</v>
       </c>
       <c r="F22">
-        <v>41.62484629754692</v>
+        <v>41.62484629754702</v>
       </c>
       <c r="G22">
-        <v>23.94838384629864</v>
+        <v>23.94838384629857</v>
       </c>
       <c r="H22">
-        <v>18.32198877765945</v>
+        <v>18.32198877765934</v>
       </c>
       <c r="I22">
-        <v>7.493777433520635</v>
+        <v>7.493777433520503</v>
       </c>
       <c r="J22">
-        <v>21.70373296826035</v>
+        <v>21.70373296826047</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.20459597163787</v>
+        <v>22.20459597163799</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.31356500336728</v>
+        <v>23.31356500336732</v>
       </c>
       <c r="C23">
-        <v>18.42899875424055</v>
+        <v>18.42899875424048</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.34111137660854</v>
+        <v>14.3411113766085</v>
       </c>
       <c r="F23">
-        <v>40.76304799150241</v>
+        <v>40.76304799150242</v>
       </c>
       <c r="G23">
-        <v>23.59208480669296</v>
+        <v>23.59208480669297</v>
       </c>
       <c r="H23">
-        <v>18.14619695268945</v>
+        <v>18.14619695268944</v>
       </c>
       <c r="I23">
-        <v>7.569619700929888</v>
+        <v>7.569619700929973</v>
       </c>
       <c r="J23">
         <v>21.29115900223113</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.78692702361197</v>
+        <v>21.78692702361196</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51292288406264</v>
+        <v>21.51292288406267</v>
       </c>
       <c r="C24">
-        <v>16.96391468621877</v>
+        <v>16.96391468621873</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.20182945552519</v>
+        <v>13.20182945552521</v>
       </c>
       <c r="F24">
-        <v>37.41674106035566</v>
+        <v>37.4167410603557</v>
       </c>
       <c r="G24">
-        <v>22.28059505455927</v>
+        <v>22.28059505455921</v>
       </c>
       <c r="H24">
-        <v>17.53614048115046</v>
+        <v>17.53614048115036</v>
       </c>
       <c r="I24">
-        <v>7.867734572888398</v>
+        <v>7.867734572888366</v>
       </c>
       <c r="J24">
-        <v>19.67685952909042</v>
+        <v>19.67685952909039</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.43459532760069</v>
+        <v>19.43459532760059</v>
       </c>
       <c r="C25">
-        <v>15.28309303242601</v>
+        <v>15.28309303242613</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.88958757535299</v>
+        <v>11.88958757535298</v>
       </c>
       <c r="F25">
-        <v>33.63240224242598</v>
+        <v>33.63240224242595</v>
       </c>
       <c r="G25">
-        <v>20.9436365465834</v>
+        <v>20.94363654658341</v>
       </c>
       <c r="H25">
-        <v>16.98758558226225</v>
+        <v>16.98758558226229</v>
       </c>
       <c r="I25">
-        <v>8.208982851728438</v>
+        <v>8.208982851728521</v>
       </c>
       <c r="J25">
-        <v>17.81946464543214</v>
+        <v>17.81946464543213</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.27678869104852</v>
+        <v>18.27678869104851</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -412,16 +412,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.78154043520304</v>
+        <v>17.78154043520307</v>
       </c>
       <c r="C2">
-        <v>13.95324219757669</v>
+        <v>13.95324219757662</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.84786922105512</v>
+        <v>10.84786922105511</v>
       </c>
       <c r="F2">
         <v>30.89578088110429</v>
@@ -430,13 +430,13 @@
         <v>20.02393034138506</v>
       </c>
       <c r="H2">
-        <v>16.66805884885708</v>
+        <v>16.66805884885707</v>
       </c>
       <c r="I2">
-        <v>8.474763967341397</v>
+        <v>8.474763967341282</v>
       </c>
       <c r="J2">
-        <v>16.34701117651575</v>
+        <v>16.34701117651576</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,37 +450,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.58210967870647</v>
+        <v>16.58210967870646</v>
       </c>
       <c r="C3">
-        <v>12.99187422223152</v>
+        <v>12.9918742222318</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09304258938509</v>
+        <v>10.09304258938505</v>
       </c>
       <c r="F3">
-        <v>28.96566427461907</v>
+        <v>28.96566427461906</v>
       </c>
       <c r="G3">
-        <v>19.44042365135157</v>
+        <v>19.44042365135147</v>
       </c>
       <c r="H3">
-        <v>16.49903797536723</v>
+        <v>16.49903797536724</v>
       </c>
       <c r="I3">
-        <v>8.663183078164888</v>
+        <v>8.663183078164845</v>
       </c>
       <c r="J3">
-        <v>15.28165165269971</v>
+        <v>15.28165165269979</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.71792787198988</v>
+        <v>15.7179278719899</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,37 +488,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80587054118226</v>
+        <v>15.80587054118229</v>
       </c>
       <c r="C4">
-        <v>12.37118288620282</v>
+        <v>12.37118288620265</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.604954881288975</v>
+        <v>9.604954881289059</v>
       </c>
       <c r="F4">
-        <v>27.74487394793278</v>
+        <v>27.74487394793274</v>
       </c>
       <c r="G4">
-        <v>19.10162278056033</v>
+        <v>19.10162278056034</v>
       </c>
       <c r="H4">
-        <v>16.41693023333172</v>
+        <v>16.41693023333168</v>
       </c>
       <c r="I4">
-        <v>8.782801701839061</v>
+        <v>8.782801701839011</v>
       </c>
       <c r="J4">
-        <v>14.59369470633095</v>
+        <v>14.59369470633088</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>15.02569885085037</v>
+        <v>15.02569885085039</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,37 +526,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47944311967528</v>
+        <v>15.47944311967536</v>
       </c>
       <c r="C5">
-        <v>12.11049798578097</v>
+        <v>12.11049798578082</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.399790763385694</v>
+        <v>9.399790763385676</v>
       </c>
       <c r="F5">
-        <v>27.23877104001604</v>
+        <v>27.23877104001601</v>
       </c>
       <c r="G5">
-        <v>18.96843047689496</v>
+        <v>18.96843047689488</v>
       </c>
       <c r="H5">
-        <v>16.38864960640377</v>
+        <v>16.38864960640364</v>
       </c>
       <c r="I5">
-        <v>8.832517261771839</v>
+        <v>8.832517261771804</v>
       </c>
       <c r="J5">
-        <v>14.30477787527701</v>
+        <v>14.30477787527704</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.73520749824678</v>
+        <v>14.73520749824679</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,37 +564,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.42462711586878</v>
+        <v>15.42462711586882</v>
       </c>
       <c r="C6">
-        <v>12.06674066055394</v>
+        <v>12.06674066055401</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.365342989463384</v>
+        <v>9.365342989463308</v>
       </c>
       <c r="F6">
-        <v>27.15422502809958</v>
+        <v>27.15422502809963</v>
       </c>
       <c r="G6">
-        <v>18.9466072611643</v>
+        <v>18.94660726116426</v>
       </c>
       <c r="H6">
-        <v>16.38425837356137</v>
+        <v>16.3842583735614</v>
       </c>
       <c r="I6">
-        <v>8.84083066127114</v>
+        <v>8.840830661271088</v>
       </c>
       <c r="J6">
-        <v>14.25628434334985</v>
+        <v>14.25628434334988</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.6864631821792</v>
+        <v>14.68646318217917</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,37 +602,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80150926183115</v>
+        <v>15.80150926183128</v>
       </c>
       <c r="C7">
-        <v>12.36769869961533</v>
+        <v>12.36769869961515</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.602213425055389</v>
+        <v>9.602213425055378</v>
       </c>
       <c r="F7">
-        <v>27.73808281848714</v>
+        <v>27.73808281848716</v>
       </c>
       <c r="G7">
-        <v>19.09980681886407</v>
+        <v>19.09980681886402</v>
       </c>
       <c r="H7">
-        <v>16.41652822442007</v>
+        <v>16.41652822442001</v>
       </c>
       <c r="I7">
-        <v>8.783468275276919</v>
+        <v>8.783468275276823</v>
       </c>
       <c r="J7">
-        <v>14.58983304154594</v>
+        <v>14.58983304154595</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>15.02181525060825</v>
+        <v>15.02181525060826</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,37 +640,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37617094434717</v>
+        <v>17.37617094434725</v>
       </c>
       <c r="C8">
-        <v>13.62800966232064</v>
+        <v>13.62800966232056</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.5926698207984</v>
+        <v>10.59266982079838</v>
       </c>
       <c r="F8">
-        <v>30.2378606617267</v>
+        <v>30.23786066172671</v>
       </c>
       <c r="G8">
-        <v>19.81868292799611</v>
+        <v>19.81868292799606</v>
       </c>
       <c r="H8">
-        <v>16.60512206215603</v>
+        <v>16.6051220621559</v>
       </c>
       <c r="I8">
-        <v>8.538902907751387</v>
+        <v>8.538902907751332</v>
       </c>
       <c r="J8">
-        <v>15.98665175295603</v>
+        <v>15.98665175295604</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.42800194926987</v>
+        <v>16.42800194926985</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -681,25 +681,25 @@
         <v>20.15339505655469</v>
       </c>
       <c r="C9">
-        <v>15.86324850206371</v>
+        <v>15.86324850206368</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.34310623090389</v>
+        <v>12.34310623090393</v>
       </c>
       <c r="F9">
-        <v>34.92526817596909</v>
+        <v>34.92526817596905</v>
       </c>
       <c r="G9">
-        <v>21.3838449288521</v>
+        <v>21.38384492885214</v>
       </c>
       <c r="H9">
-        <v>17.15859823956841</v>
+        <v>17.15859823956848</v>
       </c>
       <c r="I9">
-        <v>8.091648257375999</v>
+        <v>8.091648257376063</v>
       </c>
       <c r="J9">
         <v>18.46111522144108</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.92483807645059</v>
+        <v>18.92483807645062</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,37 +716,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01207153268015</v>
+        <v>22.01207153268023</v>
       </c>
       <c r="C10">
-        <v>17.36918293143769</v>
+        <v>17.36918293143764</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.51742326760091</v>
+        <v>13.51742326760096</v>
       </c>
       <c r="F10">
-        <v>38.33919849095282</v>
+        <v>38.33919849095294</v>
       </c>
       <c r="G10">
-        <v>22.63030584179325</v>
+        <v>22.63030584179322</v>
       </c>
       <c r="H10">
-        <v>17.69265364115733</v>
+        <v>17.69265364115725</v>
       </c>
       <c r="I10">
-        <v>7.785123661526026</v>
+        <v>7.785123661526064</v>
       </c>
       <c r="J10">
-        <v>20.12389440744877</v>
+        <v>20.12389440744881</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.60577704499577</v>
+        <v>20.60577704499584</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,37 +754,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.82006085621093</v>
+        <v>22.82006085621103</v>
       </c>
       <c r="C11">
-        <v>18.02659270783004</v>
+        <v>18.02659270783018</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.02864678543091</v>
+        <v>14.02864678543089</v>
       </c>
       <c r="F11">
-        <v>39.84085223322212</v>
+        <v>39.84085223322221</v>
       </c>
       <c r="G11">
-        <v>23.21901942801198</v>
+        <v>23.21901942801195</v>
       </c>
       <c r="H11">
-        <v>17.96648079650471</v>
+        <v>17.96648079650463</v>
       </c>
       <c r="I11">
-        <v>7.651281243953559</v>
+        <v>7.651281243953377</v>
       </c>
       <c r="J11">
-        <v>20.8482735326421</v>
+        <v>20.84827353264219</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.3386764246694</v>
+        <v>21.33867642466945</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,37 +792,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.12080222160715</v>
+        <v>23.12080222160716</v>
       </c>
       <c r="C12">
-        <v>18.27173846425731</v>
+        <v>18.27173846425723</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.21904292635108</v>
+        <v>14.2190429263511</v>
       </c>
       <c r="F12">
-        <v>40.40239152759993</v>
+        <v>40.40239152759997</v>
       </c>
       <c r="G12">
-        <v>23.4451623563255</v>
+        <v>23.44516235632557</v>
       </c>
       <c r="H12">
-        <v>18.07487415643678</v>
+        <v>18.07487415643684</v>
       </c>
       <c r="I12">
-        <v>7.601499512884785</v>
+        <v>7.601499512884809</v>
       </c>
       <c r="J12">
-        <v>21.11812765063011</v>
+        <v>21.1181276506301</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.61178627423497</v>
+        <v>21.61178627423499</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.05626174592163</v>
+        <v>23.05626174592173</v>
       </c>
       <c r="C13">
         <v>18.21910801103615</v>
@@ -839,28 +839,28 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.17817784626022</v>
+        <v>14.17817784626017</v>
       </c>
       <c r="F13">
-        <v>40.28176481746834</v>
+        <v>40.28176481746836</v>
       </c>
       <c r="G13">
-        <v>23.39631380986522</v>
+        <v>23.39631380986521</v>
       </c>
       <c r="H13">
-        <v>18.05131643682014</v>
+        <v>18.05131643682009</v>
       </c>
       <c r="I13">
-        <v>7.61217897364916</v>
+        <v>7.612178973649105</v>
       </c>
       <c r="J13">
-        <v>21.06020512604603</v>
+        <v>21.06020512604609</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.5531613857073</v>
+        <v>21.55316138570731</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.84490674188737</v>
+        <v>22.84490674188739</v>
       </c>
       <c r="C14">
-        <v>18.04683610886999</v>
+        <v>18.04683610887005</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.04437411238774</v>
+        <v>14.0443741123877</v>
       </c>
       <c r="F14">
-        <v>39.88719095825025</v>
+        <v>39.88719095825029</v>
       </c>
       <c r="G14">
-        <v>23.23755935510491</v>
+        <v>23.23755935510495</v>
       </c>
       <c r="H14">
         <v>17.97530266292616</v>
       </c>
       <c r="I14">
-        <v>7.647166953445258</v>
+        <v>7.647166953445195</v>
       </c>
       <c r="J14">
-        <v>20.87056288491921</v>
+        <v>20.87056288491926</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,7 +906,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71477038412059</v>
+        <v>22.71477038412066</v>
       </c>
       <c r="C15">
         <v>17.94082508398932</v>
@@ -915,28 +915,28 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.96200309608668</v>
+        <v>13.96200309608666</v>
       </c>
       <c r="F15">
-        <v>39.64458728699945</v>
+        <v>39.64458728699952</v>
       </c>
       <c r="G15">
         <v>23.14073903235657</v>
       </c>
       <c r="H15">
-        <v>17.9293620291313</v>
+        <v>17.92936202913127</v>
       </c>
       <c r="I15">
-        <v>7.668718829463386</v>
+        <v>7.668718829463403</v>
       </c>
       <c r="J15">
-        <v>20.75382654780791</v>
+        <v>20.75382654780794</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.24310006012241</v>
+        <v>21.24310006012244</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,34 +947,34 @@
         <v>21.95852647390042</v>
       </c>
       <c r="C16">
-        <v>17.32567783116678</v>
+        <v>17.32567783116688</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.4835604990091</v>
+        <v>13.48356049900911</v>
       </c>
       <c r="F16">
-        <v>38.24005100181551</v>
+        <v>38.24005100181554</v>
       </c>
       <c r="G16">
-        <v>22.59227541935834</v>
+        <v>22.59227541935832</v>
       </c>
       <c r="H16">
-        <v>17.67540197926722</v>
+        <v>17.6754019792672</v>
       </c>
       <c r="I16">
-        <v>7.793990872148418</v>
+        <v>7.79399087214839</v>
       </c>
       <c r="J16">
-        <v>20.07592270577433</v>
+        <v>20.07592270577436</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.55725304004423</v>
+        <v>20.55725304004426</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,37 +982,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48509850694509</v>
+        <v>21.48509850694506</v>
       </c>
       <c r="C17">
-        <v>16.94134234080219</v>
+        <v>16.94134234080221</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.18424209954961</v>
+        <v>13.18424209954967</v>
       </c>
       <c r="F17">
-        <v>37.36543928082248</v>
+        <v>37.36543928082243</v>
       </c>
       <c r="G17">
-        <v>22.26141964501656</v>
+        <v>22.26141964501648</v>
       </c>
       <c r="H17">
-        <v>17.52769959820417</v>
+        <v>17.52769959820414</v>
       </c>
       <c r="I17">
-        <v>7.872335494275466</v>
+        <v>7.872335494275479</v>
       </c>
       <c r="J17">
-        <v>19.65195068143679</v>
+        <v>19.65195068143678</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.12846857890189</v>
+        <v>20.1284685789019</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,37 +1020,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.2092514275245</v>
+        <v>21.20925142752448</v>
       </c>
       <c r="C18">
-        <v>16.71766895920138</v>
+        <v>16.71766895920139</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.00991195900451</v>
+        <v>13.00991195900453</v>
       </c>
       <c r="F18">
-        <v>36.85753079373877</v>
+        <v>36.85753079373875</v>
       </c>
       <c r="G18">
         <v>22.07315454188954</v>
       </c>
       <c r="H18">
-        <v>17.44563635220036</v>
+        <v>17.44563635220035</v>
       </c>
       <c r="I18">
-        <v>7.917916896752864</v>
+        <v>7.917916896752862</v>
       </c>
       <c r="J18">
-        <v>19.40506837007439</v>
+        <v>19.40506837007435</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.87884309648367</v>
+        <v>19.87884309648366</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,7 +1061,7 @@
         <v>21.11524076905202</v>
       </c>
       <c r="C19">
-        <v>16.64148305125047</v>
+        <v>16.6414830512504</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,16 +1070,16 @@
         <v>12.95051081577433</v>
       </c>
       <c r="F19">
-        <v>36.68472031024659</v>
+        <v>36.68472031024657</v>
       </c>
       <c r="G19">
-        <v>22.00975845999202</v>
+        <v>22.00975845999206</v>
       </c>
       <c r="H19">
-        <v>17.41833985135001</v>
+        <v>17.41833985135008</v>
       </c>
       <c r="I19">
-        <v>7.933436700928216</v>
+        <v>7.933436700928242</v>
       </c>
       <c r="J19">
         <v>19.32095438662115</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.79380484193025</v>
+        <v>19.79380484193022</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,37 +1096,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53586131487191</v>
+        <v>21.53586131487192</v>
       </c>
       <c r="C20">
-        <v>16.98252481865886</v>
+        <v>16.98252481865881</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.216328877536</v>
+        <v>13.21632887753597</v>
       </c>
       <c r="F20">
-        <v>37.45904382180489</v>
+        <v>37.45904382180487</v>
       </c>
       <c r="G20">
-        <v>22.29642871918579</v>
+        <v>22.29642871918587</v>
       </c>
       <c r="H20">
-        <v>17.54312166290109</v>
+        <v>17.54312166290117</v>
       </c>
       <c r="I20">
-        <v>7.863941177365994</v>
+        <v>7.863941177366065</v>
       </c>
       <c r="J20">
-        <v>19.69739523527725</v>
+        <v>19.69739523527722</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.17442291703662</v>
+        <v>20.17442291703659</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,10 +1134,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.90712723616779</v>
+        <v>22.90712723616781</v>
       </c>
       <c r="C21">
-        <v>18.09753821762613</v>
+        <v>18.09753821762626</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -1146,25 +1146,25 @@
         <v>14.08376123628609</v>
       </c>
       <c r="F21">
-        <v>40.00327712495675</v>
+        <v>40.00327712495677</v>
       </c>
       <c r="G21">
-        <v>23.28410135703125</v>
+        <v>23.28410135703124</v>
       </c>
       <c r="H21">
-        <v>17.99750007240062</v>
+        <v>17.99750007240063</v>
       </c>
       <c r="I21">
-        <v>7.63686476432918</v>
+        <v>7.636864764329203</v>
       </c>
       <c r="J21">
-        <v>20.92638493516604</v>
+        <v>20.92638493516608</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.41772587021912</v>
+        <v>21.41772587021915</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,37 +1172,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.77295576280489</v>
+        <v>23.77295576280473</v>
       </c>
       <c r="C22">
-        <v>18.80420347762825</v>
+        <v>18.80420347762831</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.6321256201563</v>
+        <v>14.63212562015621</v>
       </c>
       <c r="F22">
-        <v>41.62484629754702</v>
+        <v>41.62484629754692</v>
       </c>
       <c r="G22">
-        <v>23.94838384629857</v>
+        <v>23.94838384629864</v>
       </c>
       <c r="H22">
-        <v>18.32198877765934</v>
+        <v>18.32198877765945</v>
       </c>
       <c r="I22">
-        <v>7.493777433520503</v>
+        <v>7.493777433520635</v>
       </c>
       <c r="J22">
-        <v>21.70373296826047</v>
+        <v>21.70373296826035</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.20459597163799</v>
+        <v>22.20459597163787</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,28 +1210,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.31356500336732</v>
+        <v>23.31356500336728</v>
       </c>
       <c r="C23">
-        <v>18.42899875424048</v>
+        <v>18.42899875424055</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.3411113766085</v>
+        <v>14.34111137660854</v>
       </c>
       <c r="F23">
-        <v>40.76304799150242</v>
+        <v>40.76304799150241</v>
       </c>
       <c r="G23">
-        <v>23.59208480669297</v>
+        <v>23.59208480669296</v>
       </c>
       <c r="H23">
-        <v>18.14619695268944</v>
+        <v>18.14619695268945</v>
       </c>
       <c r="I23">
-        <v>7.569619700929973</v>
+        <v>7.569619700929888</v>
       </c>
       <c r="J23">
         <v>21.29115900223113</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>21.78692702361196</v>
+        <v>21.78692702361197</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51292288406267</v>
+        <v>21.51292288406264</v>
       </c>
       <c r="C24">
-        <v>16.96391468621873</v>
+        <v>16.96391468621877</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.20182945552521</v>
+        <v>13.20182945552519</v>
       </c>
       <c r="F24">
-        <v>37.4167410603557</v>
+        <v>37.41674106035566</v>
       </c>
       <c r="G24">
-        <v>22.28059505455921</v>
+        <v>22.28059505455927</v>
       </c>
       <c r="H24">
-        <v>17.53614048115036</v>
+        <v>17.53614048115046</v>
       </c>
       <c r="I24">
-        <v>7.867734572888366</v>
+        <v>7.867734572888398</v>
       </c>
       <c r="J24">
-        <v>19.67685952909039</v>
+        <v>19.67685952909042</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,37 +1286,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.43459532760059</v>
+        <v>19.43459532760069</v>
       </c>
       <c r="C25">
-        <v>15.28309303242613</v>
+        <v>15.28309303242601</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.88958757535298</v>
+        <v>11.88958757535299</v>
       </c>
       <c r="F25">
-        <v>33.63240224242595</v>
+        <v>33.63240224242598</v>
       </c>
       <c r="G25">
-        <v>20.94363654658341</v>
+        <v>20.9436365465834</v>
       </c>
       <c r="H25">
-        <v>16.98758558226229</v>
+        <v>16.98758558226225</v>
       </c>
       <c r="I25">
-        <v>8.208982851728521</v>
+        <v>8.208982851728438</v>
       </c>
       <c r="J25">
-        <v>17.81946464543213</v>
+        <v>17.81946464543214</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.27678869104851</v>
+        <v>18.27678869104852</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.78154043520307</v>
+        <v>17.78123526259645</v>
       </c>
       <c r="C2">
-        <v>13.95324219757662</v>
+        <v>13.94920940737793</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.84786922105511</v>
+        <v>10.85369208074334</v>
       </c>
       <c r="F2">
-        <v>30.89578088110429</v>
+        <v>30.88705725835069</v>
       </c>
       <c r="G2">
-        <v>20.02393034138506</v>
+        <v>18.42626241017243</v>
       </c>
       <c r="H2">
-        <v>16.66805884885707</v>
+        <v>20.05158052270365</v>
       </c>
       <c r="I2">
-        <v>8.474763967341282</v>
+        <v>16.65348097714353</v>
       </c>
       <c r="J2">
-        <v>16.34701117651576</v>
+        <v>8.47132558458849</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>16.34555903551929</v>
       </c>
       <c r="L2">
-        <v>16.79120228141333</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>16.79288022985978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.58210967870646</v>
+        <v>16.58196412583313</v>
       </c>
       <c r="C3">
-        <v>12.9918742222318</v>
+        <v>12.988255632621</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09304258938505</v>
+        <v>10.09846382046586</v>
       </c>
       <c r="F3">
-        <v>28.96566427461906</v>
+        <v>28.95743932085774</v>
       </c>
       <c r="G3">
-        <v>19.44042365135147</v>
+        <v>17.58297920809683</v>
       </c>
       <c r="H3">
-        <v>16.49903797536724</v>
+        <v>19.46765694298004</v>
       </c>
       <c r="I3">
-        <v>8.663183078164845</v>
+        <v>16.48558838170068</v>
       </c>
       <c r="J3">
-        <v>15.28165165269979</v>
+        <v>8.659902235864573</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.28046199361817</v>
       </c>
       <c r="L3">
-        <v>15.7179278719899</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>15.71956006479044</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80587054118229</v>
+        <v>15.80582353709089</v>
       </c>
       <c r="C4">
-        <v>12.37118288620265</v>
+        <v>12.36782809166573</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.604954881289059</v>
+        <v>9.610114912237082</v>
       </c>
       <c r="F4">
-        <v>27.74487394793274</v>
+        <v>27.7369661158639</v>
       </c>
       <c r="G4">
-        <v>19.10162278056034</v>
+        <v>17.07404445082437</v>
       </c>
       <c r="H4">
-        <v>16.41693023333168</v>
+        <v>19.12867034467862</v>
       </c>
       <c r="I4">
-        <v>8.782801701839011</v>
+        <v>16.40418286210202</v>
       </c>
       <c r="J4">
-        <v>14.59369470633088</v>
+        <v>8.779608125554349</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>14.59267227016286</v>
       </c>
       <c r="L4">
-        <v>15.02569885085039</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>15.02729734375929</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47944311967536</v>
+        <v>15.47943659013292</v>
       </c>
       <c r="C5">
-        <v>12.11049798578082</v>
+        <v>12.1072533015636</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.399790763385676</v>
+        <v>9.404840621646942</v>
       </c>
       <c r="F5">
-        <v>27.23877104001601</v>
+        <v>27.2309953331465</v>
       </c>
       <c r="G5">
-        <v>18.96843047689488</v>
+        <v>16.86907366973437</v>
       </c>
       <c r="H5">
-        <v>16.38864960640364</v>
+        <v>18.99541963611447</v>
       </c>
       <c r="I5">
-        <v>8.832517261771804</v>
+        <v>16.37619020487575</v>
       </c>
       <c r="J5">
-        <v>14.30477787527704</v>
+        <v>8.829357185620687</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>14.30382533964728</v>
       </c>
       <c r="L5">
-        <v>14.73520749824679</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>14.73679092885566</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.42462711586882</v>
+        <v>15.42462733146207</v>
       </c>
       <c r="C6">
-        <v>12.06674066055401</v>
+        <v>12.0635144246829</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.365342989463308</v>
+        <v>9.370374326339206</v>
       </c>
       <c r="F6">
-        <v>27.15422502809963</v>
+        <v>27.1464714393634</v>
       </c>
       <c r="G6">
-        <v>18.94660726116426</v>
+        <v>16.83519118099889</v>
       </c>
       <c r="H6">
-        <v>16.3842583735614</v>
+        <v>18.97358775247276</v>
       </c>
       <c r="I6">
-        <v>8.840830661271088</v>
+        <v>16.37184688254771</v>
       </c>
       <c r="J6">
-        <v>14.25628434334988</v>
+        <v>8.837676031891977</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>14.25534352776613</v>
       </c>
       <c r="L6">
-        <v>14.68646318217917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>14.68804403369597</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80150926183128</v>
+        <v>15.80146280207762</v>
       </c>
       <c r="C7">
-        <v>12.36769869961515</v>
+        <v>12.36434537918068</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.602213425055378</v>
+        <v>9.607371985370618</v>
       </c>
       <c r="F7">
-        <v>27.73808281848716</v>
+        <v>27.73017675639978</v>
       </c>
       <c r="G7">
-        <v>19.09980681886402</v>
+        <v>17.07127004409451</v>
       </c>
       <c r="H7">
-        <v>16.41652822442001</v>
+        <v>19.1268535259388</v>
       </c>
       <c r="I7">
-        <v>8.783468275276823</v>
+        <v>16.40378473025217</v>
       </c>
       <c r="J7">
-        <v>14.58983304154595</v>
+        <v>8.780275158739791</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>14.58881154065438</v>
       </c>
       <c r="L7">
-        <v>15.02181525060826</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>15.02341354566064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37617094434725</v>
+        <v>17.37592080285105</v>
       </c>
       <c r="C8">
-        <v>13.62800966232056</v>
+        <v>13.62411785823794</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.59266982079838</v>
+        <v>10.59835719458834</v>
       </c>
       <c r="F8">
-        <v>30.23786066172671</v>
+        <v>30.2293068025745</v>
       </c>
       <c r="G8">
-        <v>19.81868292799606</v>
+        <v>18.13377384638447</v>
       </c>
       <c r="H8">
-        <v>16.6051220621559</v>
+        <v>19.84617459280301</v>
       </c>
       <c r="I8">
-        <v>8.538902907751332</v>
+        <v>16.59093090581023</v>
       </c>
       <c r="J8">
-        <v>15.98665175295604</v>
+        <v>8.535521013091167</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.98528899477243</v>
       </c>
       <c r="L8">
-        <v>16.42800194926985</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>16.42966533429176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.15339505655469</v>
+        <v>20.15274181873273</v>
       </c>
       <c r="C9">
-        <v>15.86324850206368</v>
+        <v>15.85836578207142</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.34310623090393</v>
+        <v>12.34971714714427</v>
       </c>
       <c r="F9">
-        <v>34.92526817596905</v>
+        <v>34.91552419672758</v>
       </c>
       <c r="G9">
-        <v>21.38384492885214</v>
+        <v>20.2805099120886</v>
       </c>
       <c r="H9">
-        <v>17.15859823956848</v>
+        <v>21.41277769937982</v>
       </c>
       <c r="I9">
-        <v>8.091648257376063</v>
+        <v>17.14166968080502</v>
       </c>
       <c r="J9">
-        <v>18.46111522144108</v>
+        <v>8.08780449189984</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.45912135997459</v>
       </c>
       <c r="L9">
-        <v>18.92483807645062</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>18.92658073781562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01207153268023</v>
+        <v>22.01110845858576</v>
       </c>
       <c r="C10">
-        <v>17.36918293143764</v>
+        <v>17.36359746799155</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.51742326760096</v>
+        <v>13.52464642563732</v>
       </c>
       <c r="F10">
-        <v>38.33919849095294</v>
+        <v>38.32861071206032</v>
       </c>
       <c r="G10">
-        <v>22.63030584179322</v>
+        <v>21.89012585393485</v>
       </c>
       <c r="H10">
-        <v>17.69265364115725</v>
+        <v>22.6606522242364</v>
       </c>
       <c r="I10">
-        <v>7.785123661526064</v>
+        <v>17.67381103659595</v>
       </c>
       <c r="J10">
-        <v>20.12389440744881</v>
+        <v>7.780857657117835</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.1214463995301</v>
       </c>
       <c r="L10">
-        <v>20.60577704499584</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>20.60754245886863</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.82006085621103</v>
+        <v>22.81895109933639</v>
       </c>
       <c r="C11">
-        <v>18.02659270783018</v>
+        <v>18.02068961878499</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.02864678543089</v>
+        <v>14.03613460680983</v>
       </c>
       <c r="F11">
-        <v>39.84085223322221</v>
+        <v>39.8298841058437</v>
       </c>
       <c r="G11">
-        <v>23.21901942801195</v>
+        <v>22.62919146517372</v>
       </c>
       <c r="H11">
-        <v>17.96648079650463</v>
+        <v>23.25008613063426</v>
       </c>
       <c r="I11">
-        <v>7.651281243953377</v>
+        <v>17.9467952275946</v>
       </c>
       <c r="J11">
-        <v>20.84827353264219</v>
+        <v>7.646797844869477</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>20.84561784645976</v>
       </c>
       <c r="L11">
-        <v>21.33867642466945</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>21.34044291427734</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.12080222160716</v>
+        <v>23.11963583411406</v>
       </c>
       <c r="C12">
-        <v>18.27173846425723</v>
+        <v>18.26571507477698</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.2190429263511</v>
+        <v>14.22662901571337</v>
       </c>
       <c r="F12">
-        <v>40.40239152759997</v>
+        <v>40.39127955386654</v>
       </c>
       <c r="G12">
-        <v>23.44516235632557</v>
+        <v>22.91009769140417</v>
       </c>
       <c r="H12">
-        <v>18.07487415643684</v>
+        <v>23.47651287948759</v>
       </c>
       <c r="I12">
-        <v>7.601499512884809</v>
+        <v>18.05487381207569</v>
       </c>
       <c r="J12">
-        <v>21.1181276506301</v>
+        <v>7.596929425809576</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.11539287844849</v>
       </c>
       <c r="L12">
-        <v>21.61178627423499</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>21.6135516818908</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.05626174592173</v>
+        <v>23.05510760760464</v>
       </c>
       <c r="C13">
-        <v>18.21910801103615</v>
+        <v>18.21311053689109</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.17817784626017</v>
+        <v>14.18574285821902</v>
       </c>
       <c r="F13">
-        <v>40.28176481746836</v>
+        <v>40.27068382122523</v>
       </c>
       <c r="G13">
-        <v>23.39631380986521</v>
+        <v>22.8495517873624</v>
       </c>
       <c r="H13">
-        <v>18.05131643682009</v>
+        <v>23.4276027169207</v>
       </c>
       <c r="I13">
-        <v>7.612178973649105</v>
+        <v>18.03138368176941</v>
       </c>
       <c r="J13">
-        <v>21.06020512604609</v>
+        <v>7.607627763215252</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>21.05748741103957</v>
       </c>
       <c r="L13">
-        <v>21.55316138570731</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>21.55492709536577</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.84490674188739</v>
+        <v>22.84379234933212</v>
       </c>
       <c r="C14">
-        <v>18.04683610887005</v>
+        <v>18.04092312504657</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.0443741123877</v>
+        <v>14.05187005729989</v>
       </c>
       <c r="F14">
-        <v>39.88719095825029</v>
+        <v>39.87621099492338</v>
       </c>
       <c r="G14">
-        <v>23.23755935510495</v>
+        <v>22.65228044450381</v>
       </c>
       <c r="H14">
-        <v>17.97530266292616</v>
+        <v>23.26864918676838</v>
       </c>
       <c r="I14">
-        <v>7.647166953445195</v>
+        <v>17.95559110617659</v>
       </c>
       <c r="J14">
-        <v>20.87056288491926</v>
+        <v>7.642676514506719</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>20.86790070290946</v>
       </c>
       <c r="L14">
-        <v>21.36123308379086</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>21.36299951521436</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71477038412066</v>
+        <v>22.71368018740523</v>
       </c>
       <c r="C15">
-        <v>17.94082508398932</v>
+        <v>17.9349638399008</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.96200309608666</v>
+        <v>13.96945648197365</v>
       </c>
       <c r="F15">
-        <v>39.64458728699952</v>
+        <v>39.63366922258749</v>
       </c>
       <c r="G15">
-        <v>23.14073903235657</v>
+        <v>22.53158394828956</v>
       </c>
       <c r="H15">
-        <v>17.92936202913127</v>
+        <v>23.1717083615411</v>
       </c>
       <c r="I15">
-        <v>7.668718829463403</v>
+        <v>17.90978655186757</v>
       </c>
       <c r="J15">
-        <v>20.75382654780794</v>
+        <v>7.664265023003225</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>20.75119831467368</v>
       </c>
       <c r="L15">
-        <v>21.24310006012244</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>21.24486673465418</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.95852647390042</v>
+        <v>21.95757284892658</v>
       </c>
       <c r="C16">
-        <v>17.32567783116688</v>
+        <v>17.32011314031492</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.48356049900911</v>
+        <v>13.49076608526039</v>
       </c>
       <c r="F16">
-        <v>38.24005100181554</v>
+        <v>38.22948812403452</v>
       </c>
       <c r="G16">
-        <v>22.59227541935832</v>
+        <v>21.84196705163093</v>
       </c>
       <c r="H16">
-        <v>17.6754019792672</v>
+        <v>22.62257627748497</v>
       </c>
       <c r="I16">
-        <v>7.79399087214839</v>
+        <v>17.65661506343913</v>
       </c>
       <c r="J16">
-        <v>20.07592270577436</v>
+        <v>7.789738505971809</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>20.07348822444248</v>
       </c>
       <c r="L16">
-        <v>20.55725304004426</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>20.55901818423005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48509850694506</v>
+        <v>21.48422701973686</v>
       </c>
       <c r="C17">
-        <v>16.94134234080221</v>
+        <v>16.93595988726637</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.18424209954967</v>
+        <v>13.19129214934336</v>
       </c>
       <c r="F17">
-        <v>37.36543928082243</v>
+        <v>37.35509498585549</v>
       </c>
       <c r="G17">
-        <v>22.26141964501648</v>
+        <v>21.42068063683671</v>
       </c>
       <c r="H17">
-        <v>17.52769959820414</v>
+        <v>22.29133017406272</v>
       </c>
       <c r="I17">
-        <v>7.872335494275479</v>
+        <v>17.50940389734458</v>
       </c>
       <c r="J17">
-        <v>19.65195068143678</v>
+        <v>7.868199737774773</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>19.64963458760168</v>
       </c>
       <c r="L17">
-        <v>20.1284685789019</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>20.13023030549362</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.20925142752448</v>
+        <v>21.20842666106227</v>
       </c>
       <c r="C18">
-        <v>16.71766895920139</v>
+        <v>16.71239153822698</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.00991195900453</v>
+        <v>13.0168712428506</v>
       </c>
       <c r="F18">
-        <v>36.85753079373875</v>
+        <v>36.8473125737402</v>
       </c>
       <c r="G18">
-        <v>22.07315454188954</v>
+        <v>21.17900490320616</v>
       </c>
       <c r="H18">
-        <v>17.44563635220035</v>
+        <v>22.10284784226049</v>
       </c>
       <c r="I18">
-        <v>7.917916896752862</v>
+        <v>17.4276257757417</v>
       </c>
       <c r="J18">
-        <v>19.40506837007435</v>
+        <v>7.913845877557158</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.40282028612902</v>
       </c>
       <c r="L18">
-        <v>19.87884309648366</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>19.88060199501262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.11524076905202</v>
+        <v>21.11443173906741</v>
       </c>
       <c r="C19">
-        <v>16.6414830512504</v>
+        <v>16.63624123843638</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.95051081577433</v>
+        <v>12.95743914242292</v>
       </c>
       <c r="F19">
-        <v>36.68472031024657</v>
+        <v>36.67454484629464</v>
       </c>
       <c r="G19">
-        <v>22.00975845999206</v>
+        <v>21.0972864568363</v>
       </c>
       <c r="H19">
-        <v>17.41833985135008</v>
+        <v>22.03937946184697</v>
       </c>
       <c r="I19">
-        <v>7.933436700928242</v>
+        <v>17.40042624264576</v>
       </c>
       <c r="J19">
-        <v>19.32095438662115</v>
+        <v>7.929387220294817</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>19.31872932359181</v>
       </c>
       <c r="L19">
-        <v>19.79380484193022</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>19.79556263917386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53586131487192</v>
+        <v>21.53498113984037</v>
       </c>
       <c r="C20">
-        <v>16.98252481865881</v>
+        <v>16.97712294563876</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.21632887753597</v>
+        <v>13.22339561928429</v>
       </c>
       <c r="F20">
-        <v>37.45904382180487</v>
+        <v>37.44867622402958</v>
       </c>
       <c r="G20">
-        <v>22.29642871918587</v>
+        <v>21.4654611716459</v>
       </c>
       <c r="H20">
-        <v>17.54312166290117</v>
+        <v>22.32638004649229</v>
       </c>
       <c r="I20">
-        <v>7.863941177366065</v>
+        <v>17.52477339966556</v>
       </c>
       <c r="J20">
-        <v>19.69739523527722</v>
+        <v>7.859793253993405</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>19.69506654951328</v>
       </c>
       <c r="L20">
-        <v>20.17442291703659</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>20.17618509773824</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.90712723616781</v>
+        <v>22.90600120100512</v>
       </c>
       <c r="C21">
-        <v>18.09753821762626</v>
+        <v>18.09160042028579</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.08376123628609</v>
+        <v>14.09127752062474</v>
       </c>
       <c r="F21">
-        <v>40.00327712495677</v>
+        <v>39.99226748369385</v>
       </c>
       <c r="G21">
-        <v>23.28410135703124</v>
+        <v>22.71019489418894</v>
       </c>
       <c r="H21">
-        <v>17.99750007240063</v>
+        <v>23.31524936264326</v>
       </c>
       <c r="I21">
-        <v>7.636864764329203</v>
+        <v>17.97772342093957</v>
       </c>
       <c r="J21">
-        <v>20.92638493516608</v>
+        <v>7.632356600108543</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>20.9237064562234</v>
       </c>
       <c r="L21">
-        <v>21.41772587021915</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>21.41949213142663</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.77295576280473</v>
+        <v>23.77166257304097</v>
       </c>
       <c r="C22">
-        <v>18.80420347762831</v>
+        <v>18.79791511412343</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.63212562015621</v>
+        <v>14.63992433009165</v>
       </c>
       <c r="F22">
-        <v>41.62484629754692</v>
+        <v>41.61341791738599</v>
       </c>
       <c r="G22">
-        <v>23.94838384629864</v>
+        <v>23.52982338021267</v>
       </c>
       <c r="H22">
-        <v>18.32198877765945</v>
+        <v>23.98037832145816</v>
       </c>
       <c r="I22">
-        <v>7.493777433520635</v>
+        <v>18.3013045732006</v>
       </c>
       <c r="J22">
-        <v>21.70373296826035</v>
+        <v>7.489007971838128</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.70082314153483</v>
       </c>
       <c r="L22">
-        <v>22.20459597163787</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>22.20635612757485</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.31356500336728</v>
+        <v>23.31236171429273</v>
       </c>
       <c r="C23">
-        <v>18.42899875424055</v>
+        <v>18.42289763841228</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.34111137660854</v>
+        <v>14.3487603803318</v>
       </c>
       <c r="F23">
-        <v>40.76304799150241</v>
+        <v>40.75184314262453</v>
       </c>
       <c r="G23">
-        <v>23.59208480669296</v>
+        <v>23.09177709479305</v>
       </c>
       <c r="H23">
-        <v>18.14619695268945</v>
+        <v>23.62362164063693</v>
       </c>
       <c r="I23">
-        <v>7.569619700929888</v>
+        <v>18.12599463243414</v>
       </c>
       <c r="J23">
-        <v>21.29115900223113</v>
+        <v>7.564992332450947</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.28837300388795</v>
       </c>
       <c r="L23">
-        <v>21.78692702361197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>21.78869129890435</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51292288406264</v>
+        <v>21.51204663833852</v>
       </c>
       <c r="C24">
-        <v>16.96391468621877</v>
+        <v>16.95852159190818</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.20182945552519</v>
+        <v>13.20888865503618</v>
       </c>
       <c r="F24">
-        <v>37.41674106035566</v>
+        <v>37.40638399648333</v>
       </c>
       <c r="G24">
-        <v>22.28059505455927</v>
+        <v>21.44521425224592</v>
       </c>
       <c r="H24">
-        <v>17.53614048115046</v>
+        <v>22.31052791461553</v>
       </c>
       <c r="I24">
-        <v>7.867734572888398</v>
+        <v>17.51781597293319</v>
       </c>
       <c r="J24">
-        <v>19.67685952909042</v>
+        <v>7.863592157278799</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>19.67453653628031</v>
       </c>
       <c r="L24">
-        <v>20.15365666336458</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>20.1554186414406</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.43459532760069</v>
+        <v>19.43405267270997</v>
       </c>
       <c r="C25">
-        <v>15.28309303242601</v>
+        <v>15.27847285907587</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.88958757535299</v>
+        <v>11.89596048101236</v>
       </c>
       <c r="F25">
-        <v>33.63240224242598</v>
+        <v>33.62297221410381</v>
       </c>
       <c r="G25">
-        <v>20.9436365465834</v>
+        <v>19.69380567827965</v>
       </c>
       <c r="H25">
-        <v>16.98758558226225</v>
+        <v>20.97211740702356</v>
       </c>
       <c r="I25">
-        <v>8.208982851728438</v>
+        <v>16.97138297963843</v>
       </c>
       <c r="J25">
-        <v>17.81946464543214</v>
+        <v>8.205276394705139</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>17.81763883013404</v>
       </c>
       <c r="L25">
-        <v>18.27678869104852</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>18.27851566229052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.78123526259645</v>
+        <v>18.14954251673571</v>
       </c>
       <c r="C2">
-        <v>13.94920940737793</v>
+        <v>10.06429582002288</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.85369208074334</v>
+        <v>6.480937973109156</v>
       </c>
       <c r="F2">
-        <v>30.88705725835069</v>
+        <v>40.87518674655253</v>
       </c>
       <c r="G2">
-        <v>18.42626241017243</v>
+        <v>2.136019251605325</v>
       </c>
       <c r="H2">
-        <v>20.05158052270365</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>16.65348097714353</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>8.47132558458849</v>
+        <v>6.994759324437928</v>
       </c>
       <c r="K2">
-        <v>16.34555903551929</v>
+        <v>14.48475750244821</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.677894235780828</v>
       </c>
       <c r="M2">
-        <v>16.79288022985978</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.33165920648855</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>32.37755521644539</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.58196412583313</v>
+        <v>17.07858761159285</v>
       </c>
       <c r="C3">
-        <v>12.988255632621</v>
+        <v>9.472100941221392</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.09846382046586</v>
+        <v>6.472977188477619</v>
       </c>
       <c r="F3">
-        <v>28.95743932085774</v>
+        <v>39.69470346280558</v>
       </c>
       <c r="G3">
-        <v>17.58297920809683</v>
+        <v>2.145958325594148</v>
       </c>
       <c r="H3">
-        <v>19.46765694298004</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>16.48558838170068</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>8.659902235864573</v>
+        <v>7.048127567223679</v>
       </c>
       <c r="K3">
-        <v>15.28046199361817</v>
+        <v>13.45771749930343</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.646797737798587</v>
       </c>
       <c r="M3">
-        <v>15.71956006479044</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>10.97872891068243</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>31.51213081997451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.80582353709089</v>
+        <v>16.40048422334473</v>
       </c>
       <c r="C4">
-        <v>12.36782809166573</v>
+        <v>9.092796372860757</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>9.610114912237082</v>
+        <v>6.469380301854932</v>
       </c>
       <c r="F4">
-        <v>27.7369661158639</v>
+        <v>38.98160129325504</v>
       </c>
       <c r="G4">
-        <v>17.07404445082437</v>
+        <v>2.152208474136573</v>
       </c>
       <c r="H4">
-        <v>19.12867034467862</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>16.40418286210202</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>8.779608125554349</v>
+        <v>7.081595668985101</v>
       </c>
       <c r="K4">
-        <v>14.59267227016286</v>
+        <v>12.79412249596092</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.630203038274425</v>
       </c>
       <c r="M4">
-        <v>15.02729734375929</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>10.76422922602474</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>30.99254410034081</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.47943659013292</v>
+        <v>16.11922750576146</v>
       </c>
       <c r="C5">
-        <v>12.1072533015636</v>
+        <v>8.934267544779688</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.404840621646942</v>
+        <v>6.468221075259903</v>
       </c>
       <c r="F5">
-        <v>27.2309953331465</v>
+        <v>38.69414591688869</v>
       </c>
       <c r="G5">
-        <v>16.86907366973437</v>
+        <v>2.154794650784245</v>
       </c>
       <c r="H5">
-        <v>18.99541963611447</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>16.37619020487575</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>8.829357185620687</v>
+        <v>7.095416328501572</v>
       </c>
       <c r="K5">
-        <v>14.30382533964728</v>
+        <v>12.54332181586675</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.62406616979311</v>
       </c>
       <c r="M5">
-        <v>14.73679092885566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>10.67747858036206</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>30.78384696871659</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.42462733146207</v>
+        <v>16.07223596034575</v>
       </c>
       <c r="C6">
-        <v>12.0635144246829</v>
+        <v>8.90770479159378</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>9.370374326339206</v>
+        <v>6.468046604341521</v>
       </c>
       <c r="F6">
-        <v>27.1464714393634</v>
+        <v>38.6466096513447</v>
       </c>
       <c r="G6">
-        <v>16.83519118099889</v>
+        <v>2.155226508995658</v>
       </c>
       <c r="H6">
-        <v>18.97358775247276</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>16.37184688254771</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>8.837676031891977</v>
+        <v>7.09772241378685</v>
       </c>
       <c r="K6">
-        <v>14.25534352776613</v>
+        <v>12.50595738668933</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.623084844105793</v>
       </c>
       <c r="M6">
-        <v>14.68804403369597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>10.66311679074635</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>30.74937877372962</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.80146280207762</v>
+        <v>16.39671066868272</v>
       </c>
       <c r="C7">
-        <v>12.36434537918068</v>
+        <v>9.090674432524345</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>9.607371985370618</v>
+        <v>6.469363449623645</v>
       </c>
       <c r="F7">
-        <v>27.73017675639978</v>
+        <v>38.9777115939269</v>
       </c>
       <c r="G7">
-        <v>17.07127004409451</v>
+        <v>2.152243190871653</v>
       </c>
       <c r="H7">
-        <v>19.1268535259388</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>16.40378473025217</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>8.780275158739791</v>
+        <v>7.081781313822468</v>
       </c>
       <c r="K7">
-        <v>14.58881154065438</v>
+        <v>12.79039630893715</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.630117745170915</v>
       </c>
       <c r="M7">
-        <v>15.02341354566064</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>10.76305645954582</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>30.98971713178183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.37592080285105</v>
+        <v>17.78466169403481</v>
       </c>
       <c r="C8">
-        <v>13.62411785823794</v>
+        <v>9.863351580853061</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.59835719458834</v>
+        <v>6.477913650415541</v>
       </c>
       <c r="F8">
-        <v>30.2293068025745</v>
+        <v>40.46583446919951</v>
       </c>
       <c r="G8">
-        <v>18.13377384638447</v>
+        <v>2.139416936791208</v>
       </c>
       <c r="H8">
-        <v>19.84617459280301</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>16.59093090581023</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>8.535521013091167</v>
+        <v>7.013019270305263</v>
       </c>
       <c r="K8">
-        <v>15.98528899477243</v>
+        <v>14.13741099269018</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.666652055869727</v>
       </c>
       <c r="M8">
-        <v>16.42966533429176</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.20957329041152</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>32.07675273034632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.15274181873273</v>
+        <v>20.33632967534795</v>
       </c>
       <c r="C9">
-        <v>15.85836578207142</v>
+        <v>11.2555028039569</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.34971714714427</v>
+        <v>6.505847487492907</v>
       </c>
       <c r="F9">
-        <v>34.91552419672758</v>
+        <v>43.4696703300402</v>
       </c>
       <c r="G9">
-        <v>20.2805099120886</v>
+        <v>2.115331954977319</v>
       </c>
       <c r="H9">
-        <v>21.41277769937982</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>17.14166968080502</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>8.08780449189984</v>
+        <v>6.883432736076765</v>
       </c>
       <c r="K9">
-        <v>18.45912135997459</v>
+        <v>16.52258698082764</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.758230943175337</v>
       </c>
       <c r="M9">
-        <v>18.92658073781562</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.09847451977447</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>34.29933596820932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.01110845858576</v>
+        <v>22.23349106852139</v>
       </c>
       <c r="C10">
-        <v>17.36359746799155</v>
+        <v>12.20653215966441</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.52464642563732</v>
+        <v>6.534650393976936</v>
       </c>
       <c r="F10">
-        <v>38.32861071206032</v>
+        <v>45.72129129983026</v>
       </c>
       <c r="G10">
-        <v>21.89012585393485</v>
+        <v>2.098128881656794</v>
       </c>
       <c r="H10">
-        <v>22.6606522242364</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>17.67381103659595</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>7.780857657117835</v>
+        <v>6.790989203765251</v>
       </c>
       <c r="K10">
-        <v>20.1214463995301</v>
+        <v>18.12685841191572</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.837814309644209</v>
       </c>
       <c r="M10">
-        <v>20.60754245886863</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>12.75494142374209</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>35.9857632108212</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.81895109933639</v>
+        <v>23.08771173526322</v>
       </c>
       <c r="C11">
-        <v>18.02068961878499</v>
+        <v>12.62462922749183</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>14.03613460680983</v>
+        <v>6.549941437766169</v>
       </c>
       <c r="F11">
-        <v>39.8298841058437</v>
+        <v>46.7545567505789</v>
       </c>
       <c r="G11">
-        <v>22.62919146517372</v>
+        <v>2.090369817369691</v>
       </c>
       <c r="H11">
-        <v>23.25008613063426</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>17.9467952275946</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>7.646797844869477</v>
+        <v>6.749430626688359</v>
       </c>
       <c r="K11">
-        <v>20.84561784645976</v>
+        <v>18.82650269487885</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.876722310918509</v>
       </c>
       <c r="M11">
-        <v>21.34044291427734</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>13.05361891266573</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>36.76475018040614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.11963583411406</v>
+        <v>23.40636966682875</v>
       </c>
       <c r="C12">
-        <v>18.26571507477698</v>
+        <v>12.78096980381956</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.22662901571337</v>
+        <v>6.556084870425119</v>
       </c>
       <c r="F12">
-        <v>40.39127955386654</v>
+        <v>47.14712088038691</v>
       </c>
       <c r="G12">
-        <v>22.91009769140417</v>
+        <v>2.087437513326901</v>
       </c>
       <c r="H12">
-        <v>23.47651287948759</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>18.05487381207569</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>7.596929425809576</v>
+        <v>6.733755533297267</v>
       </c>
       <c r="K12">
-        <v>21.11539287844849</v>
+        <v>19.08728599475113</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.891847588283536</v>
       </c>
       <c r="M12">
-        <v>21.6135516818908</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>13.16669014866267</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>37.06149306598271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.05510760760464</v>
+        <v>23.33795225408982</v>
       </c>
       <c r="C13">
-        <v>18.21311053689109</v>
+        <v>12.74738540211459</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.18574285821902</v>
+        <v>6.554745398428913</v>
       </c>
       <c r="F13">
-        <v>40.27068382122523</v>
+        <v>47.06251727685299</v>
       </c>
       <c r="G13">
-        <v>22.8495517873624</v>
+        <v>2.088068839370783</v>
       </c>
       <c r="H13">
-        <v>23.4276027169207</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>18.03138368176941</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>7.607627763215252</v>
+        <v>6.737128823860406</v>
       </c>
       <c r="K13">
-        <v>21.05748741103957</v>
+        <v>19.03130349093301</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.888572620683949</v>
       </c>
       <c r="M13">
-        <v>21.55492709536577</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>13.14234004820572</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>36.9975046132887</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.84379234933212</v>
+        <v>23.11402339698105</v>
       </c>
       <c r="C14">
-        <v>18.04092312504657</v>
+        <v>12.63753054393144</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>14.05187005729989</v>
+        <v>6.550439546105475</v>
       </c>
       <c r="F14">
-        <v>39.87621099492338</v>
+        <v>46.78682721862542</v>
       </c>
       <c r="G14">
-        <v>22.65228044450381</v>
+        <v>2.090128479767075</v>
       </c>
       <c r="H14">
-        <v>23.26864918676838</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>17.95559110617659</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>7.642676514506719</v>
+        <v>6.748139832628707</v>
       </c>
       <c r="K14">
-        <v>20.86790070290946</v>
+        <v>18.84803971827199</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.877958809612579</v>
       </c>
       <c r="M14">
-        <v>21.36299951521436</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>13.0629221359508</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>36.7891276845444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.71368018740523</v>
+        <v>22.97623863431175</v>
       </c>
       <c r="C15">
-        <v>17.9349638399008</v>
+        <v>12.56998639560633</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.96945648197365</v>
+        <v>6.547849299166028</v>
       </c>
       <c r="F15">
-        <v>39.63366922258749</v>
+        <v>46.61812783748194</v>
       </c>
       <c r="G15">
-        <v>22.53158394828956</v>
+        <v>2.091390718100906</v>
       </c>
       <c r="H15">
-        <v>23.1717083615411</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>17.90978655186757</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>7.664265023003225</v>
+        <v>6.754892226597294</v>
       </c>
       <c r="K15">
-        <v>20.75119831467368</v>
+        <v>18.73524961839065</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.871508639354722</v>
       </c>
       <c r="M15">
-        <v>21.24486673465418</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>13.01427145040702</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>36.66172214023672</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.95757284892658</v>
+        <v>22.17698197174975</v>
       </c>
       <c r="C16">
-        <v>17.32011314031492</v>
+        <v>12.17892475575896</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.49076608526039</v>
+        <v>6.533698277801495</v>
       </c>
       <c r="F16">
-        <v>38.22948812403452</v>
+        <v>45.65394424342328</v>
       </c>
       <c r="G16">
-        <v>21.84196705163093</v>
+        <v>2.098636989663242</v>
       </c>
       <c r="H16">
-        <v>22.62257627748497</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>17.65661506343913</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>7.789738505971809</v>
+        <v>6.793714358346679</v>
       </c>
       <c r="K16">
-        <v>20.07348822444248</v>
+        <v>18.08054322839424</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.835326229361314</v>
       </c>
       <c r="M16">
-        <v>20.55901818423005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>12.73541942086768</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>35.93509637785184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.48422701973686</v>
+        <v>21.67789741556378</v>
       </c>
       <c r="C17">
-        <v>16.93595988726637</v>
+        <v>11.93536885775139</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.19129214934336</v>
+        <v>6.525603173816902</v>
       </c>
       <c r="F17">
-        <v>37.35509498585549</v>
+        <v>45.06473092214284</v>
       </c>
       <c r="G17">
-        <v>21.42068063683671</v>
+        <v>2.103096919028877</v>
       </c>
       <c r="H17">
-        <v>22.29133017406272</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>17.50940389734458</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>7.868199737774773</v>
+        <v>6.817650977051894</v>
       </c>
       <c r="K17">
-        <v>19.64963458760168</v>
+        <v>17.67130224425004</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.813824068335854</v>
       </c>
       <c r="M17">
-        <v>20.13023030549362</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>12.56433201253551</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>35.49239017241764</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.20842666106227</v>
+        <v>21.38756361941914</v>
       </c>
       <c r="C18">
-        <v>16.71239153822698</v>
+        <v>11.79390678993667</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.0168712428506</v>
+        <v>6.521150470022645</v>
       </c>
       <c r="F18">
-        <v>36.8473125737402</v>
+        <v>44.72667424993043</v>
       </c>
       <c r="G18">
-        <v>21.17900490320616</v>
+        <v>2.105668675825707</v>
       </c>
       <c r="H18">
-        <v>22.10284784226049</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>17.4276257757417</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>7.913845877557158</v>
+        <v>6.8314657886743</v>
       </c>
       <c r="K18">
-        <v>19.40282028612902</v>
+        <v>17.43306846186784</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.801711028951154</v>
       </c>
       <c r="M18">
-        <v>19.88060199501262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>12.46593273135143</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>35.23886416075634</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.11443173906741</v>
+        <v>21.28869474098081</v>
       </c>
       <c r="C19">
-        <v>16.63624123843638</v>
+        <v>11.745771056484</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.95743914242292</v>
+        <v>6.519676713273093</v>
       </c>
       <c r="F19">
-        <v>36.67454484629464</v>
+        <v>44.61235995808692</v>
       </c>
       <c r="G19">
-        <v>21.0972864568363</v>
+        <v>2.106540655059618</v>
       </c>
       <c r="H19">
-        <v>22.03937946184697</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>17.40042624264576</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>7.929387220294817</v>
+        <v>6.836151597850836</v>
       </c>
       <c r="K19">
-        <v>19.31872932359181</v>
+        <v>17.35191209048433</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.797653389100295</v>
       </c>
       <c r="M19">
-        <v>19.79556263917386</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>12.43261885733937</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>35.1532136852794</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.53498113984037</v>
+        <v>21.73136350461156</v>
       </c>
       <c r="C20">
-        <v>16.97712294563876</v>
+        <v>11.96143741483993</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.22339561928429</v>
+        <v>6.52644360164014</v>
       </c>
       <c r="F20">
-        <v>37.44867622402958</v>
+        <v>45.12736662725221</v>
       </c>
       <c r="G20">
-        <v>21.4654611716459</v>
+        <v>2.102621502299282</v>
       </c>
       <c r="H20">
-        <v>22.32638004649229</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>17.52477339966556</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>7.859793253993405</v>
+        <v>6.815098070828472</v>
       </c>
       <c r="K20">
-        <v>19.69506654951328</v>
+        <v>17.71516028964286</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.816086659562218</v>
       </c>
       <c r="M20">
-        <v>20.17618509773824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>12.58254430663946</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>35.53940217080097</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.90600120100512</v>
+        <v>23.17992599014967</v>
       </c>
       <c r="C21">
-        <v>18.09160042028579</v>
+        <v>12.66985047889407</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>14.09127752062474</v>
+        <v>6.551694363762254</v>
       </c>
       <c r="F21">
-        <v>39.99226748369385</v>
+        <v>46.8677688293619</v>
       </c>
       <c r="G21">
-        <v>22.71019489418894</v>
+        <v>2.089523385411751</v>
       </c>
       <c r="H21">
-        <v>23.31524936264326</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>17.97772342093957</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>7.632356600108543</v>
+        <v>6.744904016580799</v>
       </c>
       <c r="K21">
-        <v>20.9237064562234</v>
+        <v>18.90198003642852</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.881065689276597</v>
       </c>
       <c r="M21">
-        <v>21.41949213142663</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>13.08625016998088</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>36.85028466102934</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.77166257304097</v>
+        <v>24.09866690103948</v>
       </c>
       <c r="C22">
-        <v>18.79791511412343</v>
+        <v>13.12133973117155</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.63992433009165</v>
+        <v>6.570277113265226</v>
       </c>
       <c r="F22">
-        <v>41.61341791738599</v>
+        <v>48.01277693933905</v>
       </c>
       <c r="G22">
-        <v>23.52982338021267</v>
+        <v>2.080995269559097</v>
       </c>
       <c r="H22">
-        <v>23.98037832145816</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>18.3013045732006</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>7.489007971838128</v>
+        <v>6.699386420836182</v>
       </c>
       <c r="K22">
-        <v>21.70082314153483</v>
+        <v>19.65350231417877</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.925817889961267</v>
       </c>
       <c r="M22">
-        <v>22.20635612757485</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>13.41526324067912</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>37.71732631929339</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.31236171429273</v>
+        <v>23.61081504011704</v>
       </c>
       <c r="C23">
-        <v>18.42289763841228</v>
+        <v>12.88138367506254</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.3487603803318</v>
+        <v>6.560154629904609</v>
       </c>
       <c r="F23">
-        <v>40.75184314262453</v>
+        <v>47.40095893233234</v>
       </c>
       <c r="G23">
-        <v>23.09177709479305</v>
+        <v>2.085545273884373</v>
       </c>
       <c r="H23">
-        <v>23.62362164063693</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>18.12599463243414</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>7.564992332450947</v>
+        <v>6.723650302547085</v>
       </c>
       <c r="K23">
-        <v>21.28837300388795</v>
+        <v>19.25454524545338</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.901722695374937</v>
       </c>
       <c r="M23">
-        <v>21.78869129890435</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>13.23968781245814</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>37.25359592581801</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.51204663833852</v>
+        <v>21.70720209892276</v>
       </c>
       <c r="C24">
-        <v>16.95852159190818</v>
+        <v>11.94965630865879</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.20888865503618</v>
+        <v>6.526063020099953</v>
       </c>
       <c r="F24">
-        <v>37.40638399648333</v>
+        <v>45.09904687492964</v>
       </c>
       <c r="G24">
-        <v>21.44521425224592</v>
+        <v>2.10283641399435</v>
       </c>
       <c r="H24">
-        <v>22.31052791461553</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>17.51781597293319</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>7.863592157278799</v>
+        <v>6.816252072958437</v>
       </c>
       <c r="K24">
-        <v>19.67453653628031</v>
+        <v>17.69534128687903</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.815062967179981</v>
       </c>
       <c r="M24">
-        <v>20.1554186414406</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>12.57431064634981</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>35.51814496117508</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.43405267270997</v>
+        <v>19.66500814286506</v>
       </c>
       <c r="C25">
-        <v>15.27847285907587</v>
+        <v>10.89178985385447</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.89596048101236</v>
+        <v>6.496954879410785</v>
       </c>
       <c r="F25">
-        <v>33.62297221410381</v>
+        <v>42.64878972083996</v>
       </c>
       <c r="G25">
-        <v>19.69380567827965</v>
+        <v>2.121748756942794</v>
       </c>
       <c r="H25">
-        <v>20.97211740702356</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>16.97138297963843</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>8.205276394705139</v>
+        <v>6.917970589163001</v>
       </c>
       <c r="K25">
-        <v>17.81763883013404</v>
+        <v>15.90397134844684</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.731306521969485</v>
       </c>
       <c r="M25">
-        <v>18.27851566229052</v>
+        <v>11.85711688629413</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>33.68862043057065</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.14954251673571</v>
+        <v>17.90052685555755</v>
       </c>
       <c r="C2">
-        <v>10.06429582002288</v>
+        <v>11.2861648850623</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.480937973109156</v>
+        <v>7.630142851105252</v>
       </c>
       <c r="F2">
-        <v>40.87518674655253</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.136019251605325</v>
+        <v>17.46101467529682</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>7.505996702533626</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>11.63579676451474</v>
       </c>
       <c r="J2">
-        <v>6.994759324437928</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.48475750244821</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>5.677894235780828</v>
+        <v>6.240440841778328</v>
       </c>
       <c r="M2">
-        <v>11.33165920648855</v>
+        <v>10.89054611691441</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>12.20863904294467</v>
       </c>
       <c r="O2">
-        <v>32.37755521644539</v>
+        <v>11.73944702740361</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.07858761159285</v>
+        <v>16.73505209602131</v>
       </c>
       <c r="C3">
-        <v>9.472100941221392</v>
+        <v>10.95133831943636</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.472977188477619</v>
+        <v>7.733475072919334</v>
       </c>
       <c r="F3">
-        <v>39.69470346280558</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.145958325594148</v>
+        <v>17.04228910005481</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>7.555307868992979</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>11.84165732446763</v>
       </c>
       <c r="J3">
-        <v>7.048127567223679</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>13.45771749930343</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>5.646797737798587</v>
+        <v>6.153814034157012</v>
       </c>
       <c r="M3">
-        <v>10.97872891068243</v>
+        <v>10.3809045837727</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.26829578131745</v>
       </c>
       <c r="O3">
-        <v>31.51213081997451</v>
+        <v>11.71979800393308</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.40048422334473</v>
+        <v>15.97620063165836</v>
       </c>
       <c r="C4">
-        <v>9.092796372860757</v>
+        <v>10.74025276686587</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.469380301854932</v>
+        <v>7.80013495257236</v>
       </c>
       <c r="F4">
-        <v>38.98160129325504</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.152208474136573</v>
+        <v>16.80448583273785</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>7.590662002485686</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>11.97718013269994</v>
       </c>
       <c r="J4">
-        <v>7.081595668985101</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>12.79412249596092</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>5.630203038274425</v>
+        <v>6.102744020161364</v>
       </c>
       <c r="M4">
-        <v>10.76422922602474</v>
+        <v>10.05730143503784</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>12.30845158999646</v>
       </c>
       <c r="O4">
-        <v>30.99254410034081</v>
+        <v>11.71935791412868</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.11922750576146</v>
+        <v>15.6560599979481</v>
       </c>
       <c r="C5">
-        <v>8.934267544779688</v>
+        <v>10.65294216199192</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.468221075259903</v>
+        <v>7.828099801744752</v>
       </c>
       <c r="F5">
-        <v>38.69414591688869</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.154794650784245</v>
+        <v>16.71247038334754</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>7.606300976167778</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>12.03461529448954</v>
       </c>
       <c r="J5">
-        <v>7.095416328501572</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>12.54332181586675</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>5.62406616979311</v>
+        <v>6.08248014642925</v>
       </c>
       <c r="M5">
-        <v>10.67747858036206</v>
+        <v>9.922911437811701</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>12.32568600011299</v>
       </c>
       <c r="O5">
-        <v>30.78384696871659</v>
+        <v>11.72199603093535</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.07223596034575</v>
+        <v>15.60224168947578</v>
       </c>
       <c r="C6">
-        <v>8.90770479159378</v>
+        <v>10.63836913078116</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.468046604341521</v>
+        <v>7.832791477419867</v>
       </c>
       <c r="F6">
-        <v>38.6466096513447</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.155226508995658</v>
+        <v>16.69748732701726</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>7.608970938572559</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>12.04428338511662</v>
       </c>
       <c r="J6">
-        <v>7.09772241378685</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>12.50595738668933</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>5.623084844105793</v>
+        <v>6.079148821989325</v>
       </c>
       <c r="M6">
-        <v>10.66311679074635</v>
+        <v>9.900449315411249</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>12.32859988666082</v>
       </c>
       <c r="O6">
-        <v>30.74937877372962</v>
+        <v>11.72260109802998</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.39671066868272</v>
+        <v>15.97192728055752</v>
       </c>
       <c r="C7">
-        <v>9.090674432524345</v>
+        <v>10.73908036796641</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.469363449623645</v>
+        <v>7.80050886500328</v>
       </c>
       <c r="F7">
-        <v>38.9777115939269</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.152243190871653</v>
+        <v>16.80322504337476</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>7.590867985345237</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>11.97794588892198</v>
       </c>
       <c r="J7">
-        <v>7.081781313822468</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>12.79039630893715</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>5.630117745170915</v>
+        <v>6.102468498886918</v>
       </c>
       <c r="M7">
-        <v>10.76305645954582</v>
+        <v>10.05549896494706</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>12.30868051497051</v>
       </c>
       <c r="O7">
-        <v>30.98971713178183</v>
+        <v>11.71938222711404</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.78466169403481</v>
+        <v>17.50762810095761</v>
       </c>
       <c r="C8">
-        <v>9.863351580853061</v>
+        <v>11.17191088527615</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.477913650415541</v>
+        <v>7.665100007333941</v>
       </c>
       <c r="F8">
-        <v>40.46583446919951</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.139416936791208</v>
+        <v>17.3126646595326</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>7.521918114318253</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>11.70482997155558</v>
       </c>
       <c r="J8">
-        <v>7.013019270305263</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>14.13741099269018</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>5.666652055869727</v>
+        <v>6.21014124120561</v>
       </c>
       <c r="M8">
-        <v>11.20957329041152</v>
+        <v>10.71713087059225</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.22846683413245</v>
       </c>
       <c r="O8">
-        <v>32.07675273034632</v>
+        <v>11.73019707912549</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.33632967534795</v>
+        <v>20.17753539864652</v>
       </c>
       <c r="C9">
-        <v>11.2555028039569</v>
+        <v>11.97342673509912</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.505847487492907</v>
+        <v>7.425443858167793</v>
       </c>
       <c r="F9">
-        <v>43.4696703300402</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.115331954977319</v>
+        <v>18.46187332564528</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>7.429067930207142</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>11.24589960925733</v>
       </c>
       <c r="J9">
-        <v>6.883432736076765</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>16.52258698082764</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>5.758230943175337</v>
+        <v>6.437408776070024</v>
       </c>
       <c r="M9">
-        <v>12.09847451977447</v>
+        <v>12.13459141468827</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>12.09991451449966</v>
       </c>
       <c r="O9">
-        <v>34.29933596820932</v>
+        <v>11.84812849439408</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.23349106852139</v>
+        <v>21.93328975352385</v>
       </c>
       <c r="C10">
-        <v>12.20653215966441</v>
+        <v>12.5292118947972</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.534650393976936</v>
+        <v>7.265741279649092</v>
       </c>
       <c r="F10">
-        <v>45.72129129983026</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.098128881656794</v>
+        <v>19.39264798758656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>7.389629083083504</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>10.96199608781836</v>
       </c>
       <c r="J10">
-        <v>6.790989203765251</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>18.12685841191572</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>5.837814309644209</v>
+        <v>6.613238587613729</v>
       </c>
       <c r="M10">
-        <v>12.75494142374209</v>
+        <v>13.12475433037983</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>12.02411300540422</v>
       </c>
       <c r="O10">
-        <v>35.9857632108212</v>
+        <v>11.99947038988354</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.08771173526322</v>
+        <v>22.68791808061822</v>
       </c>
       <c r="C11">
-        <v>12.62462922749183</v>
+        <v>12.77412024731496</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.549941437766169</v>
+        <v>7.196797613924683</v>
       </c>
       <c r="F11">
-        <v>46.7545567505789</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.090369817369691</v>
+        <v>19.83354205144866</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>7.378600780922197</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>10.8460483916003</v>
       </c>
       <c r="J11">
-        <v>6.749430626688359</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>18.82650269487885</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>5.876722310918509</v>
+        <v>6.694938086381624</v>
       </c>
       <c r="M11">
-        <v>13.05361891266573</v>
+        <v>13.55193181855378</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>11.9939409228156</v>
       </c>
       <c r="O11">
-        <v>36.76475018040614</v>
+        <v>12.08346203557327</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.40636966682875</v>
+        <v>22.96738794573418</v>
       </c>
       <c r="C12">
-        <v>12.78096980381956</v>
+        <v>12.86566892672502</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.556084870425119</v>
+        <v>7.171238344332465</v>
       </c>
       <c r="F12">
-        <v>47.14712088038691</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.087437513326901</v>
+        <v>20.00289582351826</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>7.37547524352054</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>10.80419343492938</v>
       </c>
       <c r="J12">
-        <v>6.733755533297267</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>19.08728599475113</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>5.891847588283536</v>
+        <v>6.726104083146869</v>
       </c>
       <c r="M12">
-        <v>13.16669014866267</v>
+        <v>13.71036132862384</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>11.98315872899083</v>
       </c>
       <c r="O12">
-        <v>37.06149306598271</v>
+        <v>12.11752488026888</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.33795225408982</v>
+        <v>22.90747816761582</v>
       </c>
       <c r="C13">
-        <v>12.74738540211459</v>
+        <v>12.84600611253871</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.554745398428913</v>
+        <v>7.176718346887231</v>
       </c>
       <c r="F13">
-        <v>47.06251727685299</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>2.088068839370783</v>
+        <v>19.96631768965579</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>7.376100741901645</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>10.81311379670584</v>
       </c>
       <c r="J13">
-        <v>6.737128823860406</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>19.03130349093301</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>5.888572620683949</v>
+        <v>6.71938206559743</v>
       </c>
       <c r="M13">
-        <v>13.14234004820572</v>
+        <v>13.67638873665586</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>11.98545186815383</v>
       </c>
       <c r="O13">
-        <v>36.9975046132887</v>
+        <v>12.11008727551064</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.11402339698105</v>
+        <v>22.71103605349</v>
       </c>
       <c r="C14">
-        <v>12.63753054393144</v>
+        <v>12.78167620085312</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.550439546105475</v>
+        <v>7.194683756891839</v>
       </c>
       <c r="F14">
-        <v>46.78682721862542</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.090128479767075</v>
+        <v>19.84742751249316</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.378322256013885</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>10.84256290695078</v>
       </c>
       <c r="J14">
-        <v>6.748139832628707</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>18.84803971827199</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>5.877958809612579</v>
+        <v>6.697497661667202</v>
       </c>
       <c r="M14">
-        <v>13.0629221359508</v>
+        <v>13.56503263915509</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>11.993040833158</v>
       </c>
       <c r="O14">
-        <v>36.7891276845444</v>
+        <v>12.08621874561164</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.97623863431175</v>
+        <v>22.5898916545871</v>
       </c>
       <c r="C15">
-        <v>12.56998639560633</v>
+        <v>12.74211545869217</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.547849299166028</v>
+        <v>7.205759964618724</v>
       </c>
       <c r="F15">
-        <v>46.61812783748194</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.091390718100906</v>
+        <v>19.77491255351529</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.379821523408031</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>10.8608733503657</v>
       </c>
       <c r="J15">
-        <v>6.754892226597294</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>18.73524961839065</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>5.871508639354722</v>
+        <v>6.684122013106262</v>
       </c>
       <c r="M15">
-        <v>13.01427145040702</v>
+        <v>13.49639010120098</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>11.99777379102702</v>
       </c>
       <c r="O15">
-        <v>36.66172214023672</v>
+        <v>12.0718947337901</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.17698197174975</v>
+        <v>21.883090047935</v>
       </c>
       <c r="C16">
-        <v>12.17892475575896</v>
+        <v>12.51304240975178</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.533698277801495</v>
+        <v>7.270322751120374</v>
       </c>
       <c r="F16">
-        <v>45.65394424342328</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.098636989663242</v>
+        <v>19.36417622986501</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>7.390493719157741</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>10.9698520050374</v>
       </c>
       <c r="J16">
-        <v>6.793714358346679</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>18.08054322839424</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>5.835326229361314</v>
+        <v>6.60793224627334</v>
       </c>
       <c r="M16">
-        <v>12.73541942086768</v>
+        <v>13.0963701545477</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>12.02617353768942</v>
       </c>
       <c r="O16">
-        <v>35.93509637785184</v>
+        <v>11.99429303984572</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.67789741556378</v>
+        <v>21.43823409244569</v>
       </c>
       <c r="C17">
-        <v>11.93536885775139</v>
+        <v>12.37044424210281</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.525603173816902</v>
+        <v>7.310889445158793</v>
       </c>
       <c r="F17">
-        <v>45.06473092214284</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.103096919028877</v>
+        <v>19.116596216749</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>7.398851132899507</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>11.04019304957948</v>
       </c>
       <c r="J17">
-        <v>6.817650977051894</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>17.67130224425004</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>5.813824068335854</v>
+        <v>6.561618086557989</v>
       </c>
       <c r="M17">
-        <v>12.56433201253551</v>
+        <v>12.84502119670612</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>12.04471617908198</v>
       </c>
       <c r="O17">
-        <v>35.49239017241764</v>
+        <v>11.95062471149522</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.38756361941914</v>
+        <v>21.17821343004349</v>
       </c>
       <c r="C18">
-        <v>11.79390678993667</v>
+        <v>12.2876827306105</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.521150470022645</v>
+        <v>7.334570131079908</v>
       </c>
       <c r="F18">
-        <v>44.72667424993043</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.105668675825707</v>
+        <v>18.97584708503978</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>7.404305275205994</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>11.0818839248128</v>
       </c>
       <c r="J18">
-        <v>6.8314657886743</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>17.43306846186784</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>5.801711028951154</v>
+        <v>6.535141778102756</v>
       </c>
       <c r="M18">
-        <v>12.46593273135143</v>
+        <v>12.69826233748567</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>12.05578565066659</v>
       </c>
       <c r="O18">
-        <v>35.23886416075634</v>
+        <v>11.92692914301407</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.28869474098081</v>
+        <v>21.0894605453833</v>
       </c>
       <c r="C19">
-        <v>11.745771056484</v>
+        <v>12.25953527856094</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.519676713273093</v>
+        <v>7.342647299844909</v>
       </c>
       <c r="F19">
-        <v>44.61235995808692</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.106540655059618</v>
+        <v>18.92847922907579</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>7.40626140337115</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>11.09620697680124</v>
       </c>
       <c r="J19">
-        <v>6.836151597850836</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>17.35191209048433</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>5.797653389100295</v>
+        <v>6.526205805113296</v>
       </c>
       <c r="M19">
-        <v>12.43261885733937</v>
+        <v>12.64819600711373</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>12.05960231588527</v>
       </c>
       <c r="O19">
-        <v>35.1532136852794</v>
+        <v>11.91914780585591</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.73136350461156</v>
+        <v>21.48601908295946</v>
       </c>
       <c r="C20">
-        <v>11.96143741483993</v>
+        <v>12.38570135084407</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.52644360164014</v>
+        <v>7.306534950236602</v>
       </c>
       <c r="F20">
-        <v>45.12736662725221</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.102621502299282</v>
+        <v>19.14278137438414</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>7.397894085269567</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>11.03257649045045</v>
       </c>
       <c r="J20">
-        <v>6.815098070828472</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>17.71516028964286</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>5.816086659562218</v>
+        <v>6.566531636704738</v>
       </c>
       <c r="M20">
-        <v>12.58254430663946</v>
+        <v>12.87200427582029</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>12.04270028033333</v>
       </c>
       <c r="O20">
-        <v>35.53940217080097</v>
+        <v>11.95512558340071</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.17992599014967</v>
+        <v>22.76890623498311</v>
       </c>
       <c r="C21">
-        <v>12.66985047889407</v>
+        <v>12.80060422134267</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.551694363762254</v>
+        <v>7.189391871976014</v>
       </c>
       <c r="F21">
-        <v>46.8677688293619</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.089523385411751</v>
+        <v>19.8822843088785</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>7.377640772091026</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>10.83385600867809</v>
       </c>
       <c r="J21">
-        <v>6.744904016580799</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>18.90198003642852</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>5.881065689276597</v>
+        <v>6.703919592203693</v>
       </c>
       <c r="M21">
-        <v>13.08625016998088</v>
+        <v>13.59783098487289</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>11.99079411725972</v>
       </c>
       <c r="O21">
-        <v>36.85028466102934</v>
+        <v>12.09316766303592</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.09866690103948</v>
+        <v>23.570698400212</v>
       </c>
       <c r="C22">
-        <v>13.12133973117155</v>
+        <v>13.06479459972953</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.570277113265226</v>
+        <v>7.116035791493511</v>
       </c>
       <c r="F22">
-        <v>48.01277693933905</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>2.080995269559097</v>
+        <v>20.37951119647081</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>7.370555104863767</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>10.71602200538694</v>
       </c>
       <c r="J22">
-        <v>6.699386420836182</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>19.65350231417877</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>5.925817889961267</v>
+        <v>6.795032441966812</v>
       </c>
       <c r="M22">
-        <v>13.41526324067912</v>
+        <v>14.0527793729257</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>11.9606319955651</v>
       </c>
       <c r="O22">
-        <v>37.71732631929339</v>
+        <v>12.19657320255201</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.61081504011704</v>
+        <v>23.14610437757886</v>
       </c>
       <c r="C23">
-        <v>12.88138367506254</v>
+        <v>12.92444519280707</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.560154629904609</v>
+        <v>7.15488866236311</v>
       </c>
       <c r="F23">
-        <v>47.40095893233234</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>2.085545273884373</v>
+        <v>20.11289590039318</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>7.373755023124098</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>10.77775611073599</v>
       </c>
       <c r="J23">
-        <v>6.723650302547085</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>19.25454524545338</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>5.901722695374937</v>
+        <v>6.746288739935881</v>
       </c>
       <c r="M23">
-        <v>13.23968781245814</v>
+        <v>13.81173733600969</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>11.97637781630742</v>
       </c>
       <c r="O23">
-        <v>37.25359592581801</v>
+        <v>12.14015291517989</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.70720209892276</v>
+        <v>21.46442878311904</v>
       </c>
       <c r="C24">
-        <v>11.94965630865879</v>
+        <v>12.37880603712037</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.526063020099953</v>
+        <v>7.308502502337348</v>
       </c>
       <c r="F24">
-        <v>45.09904687492964</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.10283641399435</v>
+        <v>19.13093810968022</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>7.3983247481845</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>11.03601605210006</v>
       </c>
       <c r="J24">
-        <v>6.816252072958437</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>17.69534128687903</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>5.815062967179981</v>
+        <v>6.564309751082181</v>
       </c>
       <c r="M24">
-        <v>12.57431064634981</v>
+        <v>12.85981225029374</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>12.04361039578972</v>
       </c>
       <c r="O24">
-        <v>35.51814496117508</v>
+        <v>11.95308635366644</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.66500814286506</v>
+        <v>19.49158782485594</v>
       </c>
       <c r="C25">
-        <v>10.89178985385447</v>
+        <v>11.76212709236484</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.496954879410785</v>
+        <v>7.487449499166232</v>
       </c>
       <c r="F25">
-        <v>42.64878972083996</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.121748756942794</v>
+        <v>18.13537517512513</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.44935226639218</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>11.36121128205959</v>
       </c>
       <c r="J25">
-        <v>6.917970589163001</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>15.90397134844684</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>5.731306521969485</v>
+        <v>6.374299292794812</v>
       </c>
       <c r="M25">
-        <v>11.85711688629413</v>
+        <v>11.74929546015382</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>12.13150203549546</v>
       </c>
       <c r="O25">
-        <v>33.68862043057065</v>
+        <v>11.80525524378122</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.90052685555755</v>
+        <v>12.47380400797446</v>
       </c>
       <c r="C2">
-        <v>11.2861648850623</v>
+        <v>11.49003351170286</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.630142851105252</v>
+        <v>13.06301130762026</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>17.46101467529682</v>
+        <v>22.68433865537384</v>
       </c>
       <c r="H2">
-        <v>7.505996702533626</v>
+        <v>12.79507591132591</v>
       </c>
       <c r="I2">
-        <v>11.63579676451474</v>
+        <v>19.9257970454268</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.240440841778328</v>
+        <v>9.944895321098828</v>
       </c>
       <c r="M2">
-        <v>10.89054611691441</v>
+        <v>13.50925961736414</v>
       </c>
       <c r="N2">
-        <v>12.20863904294467</v>
+        <v>17.27861987639285</v>
       </c>
       <c r="O2">
-        <v>11.73944702740361</v>
+        <v>18.6568047516667</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.73505209602131</v>
+        <v>11.99802600893717</v>
       </c>
       <c r="C3">
-        <v>10.95133831943636</v>
+        <v>11.38240386900718</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.733475072919334</v>
+        <v>13.10988307142015</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>17.04228910005481</v>
+        <v>22.72562814167759</v>
       </c>
       <c r="H3">
-        <v>7.555307868992979</v>
+        <v>12.83880148355165</v>
       </c>
       <c r="I3">
-        <v>11.84165732446763</v>
+        <v>20.0266850126439</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.153814034157012</v>
+        <v>9.951562977953566</v>
       </c>
       <c r="M3">
-        <v>10.3809045837727</v>
+        <v>13.41335161166051</v>
       </c>
       <c r="N3">
-        <v>12.26829578131745</v>
+        <v>17.31013520986431</v>
       </c>
       <c r="O3">
-        <v>11.71979800393308</v>
+        <v>18.72425339380221</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.97620063165836</v>
+        <v>11.69680833864881</v>
       </c>
       <c r="C4">
-        <v>10.74025276686587</v>
+        <v>11.31555334519014</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.80013495257236</v>
+        <v>13.14035251059573</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>16.80448583273785</v>
+        <v>22.75964313504788</v>
       </c>
       <c r="H4">
-        <v>7.590662002485686</v>
+        <v>12.86774228358949</v>
       </c>
       <c r="I4">
-        <v>11.97718013269994</v>
+        <v>20.09252285375984</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.102744020161364</v>
+        <v>9.957018337594677</v>
       </c>
       <c r="M4">
-        <v>10.05730143503784</v>
+        <v>13.35571125051987</v>
       </c>
       <c r="N4">
-        <v>12.30845158999646</v>
+        <v>17.33117255928149</v>
       </c>
       <c r="O4">
-        <v>11.71935791412868</v>
+        <v>18.76998623788411</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.6560599979481</v>
+        <v>11.57194905493191</v>
       </c>
       <c r="C5">
-        <v>10.65294216199192</v>
+        <v>11.28813507493338</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.828099801744752</v>
+        <v>13.15319484849389</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>16.71247038334754</v>
+        <v>22.77567392861717</v>
       </c>
       <c r="H5">
-        <v>7.606300976167778</v>
+        <v>12.8800622004815</v>
       </c>
       <c r="I5">
-        <v>12.03461529448954</v>
+        <v>20.12033130832761</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.08248014642925</v>
+        <v>9.959584419035821</v>
       </c>
       <c r="M5">
-        <v>9.922911437811701</v>
+        <v>13.33255473622666</v>
       </c>
       <c r="N5">
-        <v>12.32568600011299</v>
+        <v>17.34017032634518</v>
       </c>
       <c r="O5">
-        <v>11.72199603093535</v>
+        <v>18.7897064263958</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.60224168947578</v>
+        <v>11.5510942746371</v>
       </c>
       <c r="C6">
-        <v>10.63836913078116</v>
+        <v>11.28357213309028</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.832791477419867</v>
+        <v>13.15535305045017</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>16.69748732701726</v>
+        <v>22.77846656609839</v>
       </c>
       <c r="H6">
-        <v>7.608970938572559</v>
+        <v>12.88213970017756</v>
       </c>
       <c r="I6">
-        <v>12.04428338511662</v>
+        <v>20.12500801894072</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.079148821989325</v>
+        <v>9.96003124736372</v>
       </c>
       <c r="M6">
-        <v>9.900449315411249</v>
+        <v>13.32873022712324</v>
       </c>
       <c r="N6">
-        <v>12.32859988666082</v>
+        <v>17.34169008121707</v>
       </c>
       <c r="O6">
-        <v>11.72260109802998</v>
+        <v>18.79304632902677</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.97192728055752</v>
+        <v>11.69513274353571</v>
       </c>
       <c r="C7">
-        <v>10.73908036796641</v>
+        <v>11.31518426432972</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.80050886500328</v>
+        <v>13.140523981713</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>16.80322504337476</v>
+        <v>22.75985056101797</v>
       </c>
       <c r="H7">
-        <v>7.590867985345237</v>
+        <v>12.86790630333737</v>
       </c>
       <c r="I7">
-        <v>11.97794588892198</v>
+        <v>20.09289392397929</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.102468498886918</v>
+        <v>9.957051555159461</v>
       </c>
       <c r="M7">
-        <v>10.05549896494706</v>
+        <v>13.35539758347705</v>
       </c>
       <c r="N7">
-        <v>12.30868051497051</v>
+        <v>17.33129218505649</v>
       </c>
       <c r="O7">
-        <v>11.71938222711404</v>
+        <v>18.77024780666973</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.50762810095761</v>
+        <v>12.31174079459681</v>
       </c>
       <c r="C8">
-        <v>11.17191088527615</v>
+        <v>11.45309145897932</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.665100007333941</v>
+        <v>13.07882243679675</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>17.3126646595326</v>
+        <v>22.6967722678841</v>
       </c>
       <c r="H8">
-        <v>7.521918114318253</v>
+        <v>12.80971804636787</v>
       </c>
       <c r="I8">
-        <v>11.70482997155558</v>
+        <v>19.95977554324811</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.21014124120561</v>
+        <v>9.946912179348276</v>
       </c>
       <c r="M8">
-        <v>10.71713087059225</v>
+        <v>13.47594297312209</v>
       </c>
       <c r="N8">
-        <v>12.22846683413245</v>
+        <v>17.28913669544918</v>
       </c>
       <c r="O8">
-        <v>11.73019707912549</v>
+        <v>18.67916320069676</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.17753539864652</v>
+        <v>13.44208439500214</v>
       </c>
       <c r="C9">
-        <v>11.97342673509912</v>
+        <v>11.71674403712448</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.425443858167793</v>
+        <v>12.97119717137042</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>18.46187332564528</v>
+        <v>22.64214836870593</v>
       </c>
       <c r="H9">
-        <v>7.429067930207142</v>
+        <v>12.71222010044221</v>
       </c>
       <c r="I9">
-        <v>11.24589960925733</v>
+        <v>19.72960143494831</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>6.437408776070024</v>
+        <v>9.937800506432897</v>
       </c>
       <c r="M9">
-        <v>12.13459141468827</v>
+        <v>13.72138896475573</v>
       </c>
       <c r="N9">
-        <v>12.09991451449966</v>
+        <v>17.21982264117936</v>
       </c>
       <c r="O9">
-        <v>11.84812849439408</v>
+        <v>18.53492050689511</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.93328975352385</v>
+        <v>14.21675368158522</v>
       </c>
       <c r="C10">
-        <v>12.5292118947972</v>
+        <v>11.90538031655529</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>7.265741279649092</v>
+        <v>12.90022320722878</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>19.39264798758656</v>
+        <v>22.64448068034298</v>
       </c>
       <c r="H10">
-        <v>7.389629083083504</v>
+        <v>12.65071493353515</v>
       </c>
       <c r="I10">
-        <v>10.96199608781836</v>
+        <v>19.57929468700943</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>6.613238587613729</v>
+        <v>9.937628861146228</v>
       </c>
       <c r="M10">
-        <v>13.12475433037983</v>
+        <v>13.90608762386075</v>
       </c>
       <c r="N10">
-        <v>12.02411300540422</v>
+        <v>17.17699577142696</v>
       </c>
       <c r="O10">
-        <v>11.99947038988354</v>
+        <v>18.45003780088664</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.68791808061822</v>
+        <v>14.55574407043208</v>
       </c>
       <c r="C11">
-        <v>12.77412024731496</v>
+        <v>11.98990146607355</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>7.196797613924683</v>
+        <v>12.86968260145963</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>19.83354205144866</v>
+        <v>22.65480444730221</v>
       </c>
       <c r="H11">
-        <v>7.378600780922197</v>
+        <v>12.62493389391979</v>
       </c>
       <c r="I11">
-        <v>10.8460483916003</v>
+        <v>19.5149962337515</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>6.694938086381624</v>
+        <v>9.93895619001559</v>
       </c>
       <c r="M11">
-        <v>13.55193181855378</v>
+        <v>13.99080999833205</v>
       </c>
       <c r="N11">
-        <v>11.9939409228156</v>
+        <v>17.15926230537164</v>
       </c>
       <c r="O11">
-        <v>12.08346203557327</v>
+        <v>18.41602991301787</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.96738794573418</v>
+        <v>14.68209218737356</v>
       </c>
       <c r="C12">
-        <v>12.86566892672502</v>
+        <v>12.02170591716328</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>7.171238344332465</v>
+        <v>12.85836789575746</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>20.00289582351826</v>
+        <v>22.66004641909764</v>
       </c>
       <c r="H12">
-        <v>7.37547524352054</v>
+        <v>12.61548742873228</v>
       </c>
       <c r="I12">
-        <v>10.80419343492938</v>
+        <v>19.49123434641975</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>6.726104083146869</v>
+        <v>9.939659829749102</v>
       </c>
       <c r="M12">
-        <v>13.71036132862384</v>
+        <v>14.02297177251179</v>
       </c>
       <c r="N12">
-        <v>11.98315872899083</v>
+        <v>17.15279785633062</v>
       </c>
       <c r="O12">
-        <v>12.11752488026888</v>
+        <v>18.40381640459896</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.90747816761582</v>
+        <v>14.65497203563313</v>
       </c>
       <c r="C13">
-        <v>12.84600611253871</v>
+        <v>12.0148654937222</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>7.176718346887231</v>
+        <v>12.86079359609396</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>19.96631768965579</v>
+        <v>22.65885820889567</v>
       </c>
       <c r="H13">
-        <v>7.376100741901645</v>
+        <v>12.61750782548506</v>
       </c>
       <c r="I13">
-        <v>10.81311379670584</v>
+        <v>19.49632580212326</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>6.71938206559743</v>
+        <v>9.939499366636175</v>
       </c>
       <c r="M13">
-        <v>13.67638873665586</v>
+        <v>14.01604198002618</v>
       </c>
       <c r="N13">
-        <v>11.98545186815383</v>
+        <v>17.15417894540696</v>
       </c>
       <c r="O13">
-        <v>12.11008727551064</v>
+        <v>18.40641721205926</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.71103605349</v>
+        <v>14.56617977441014</v>
       </c>
       <c r="C14">
-        <v>12.78167620085312</v>
+        <v>11.99252217536952</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>7.194683756891839</v>
+        <v>12.86874672013202</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>19.84742751249316</v>
+        <v>22.655209003339</v>
       </c>
       <c r="H14">
-        <v>7.378322256013885</v>
+        <v>12.62415038823614</v>
       </c>
       <c r="I14">
-        <v>10.84256290695078</v>
+        <v>19.513029571923</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>6.697497661667202</v>
+        <v>9.939010056890757</v>
       </c>
       <c r="M14">
-        <v>13.56503263915509</v>
+        <v>13.99345450292876</v>
       </c>
       <c r="N14">
-        <v>11.993040833158</v>
+        <v>17.1587254478653</v>
       </c>
       <c r="O14">
-        <v>12.08621874561164</v>
+        <v>18.41501176950575</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.5898916545871</v>
+        <v>14.51152635528995</v>
       </c>
       <c r="C15">
-        <v>12.74211545869217</v>
+        <v>11.97880947999729</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>7.205759964618724</v>
+        <v>12.87365082221489</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>19.77491255351529</v>
+        <v>22.65314728913081</v>
       </c>
       <c r="H15">
-        <v>7.379821523408031</v>
+        <v>12.62826034108641</v>
       </c>
       <c r="I15">
-        <v>10.8608733503657</v>
+        <v>19.5233375079799</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>6.684122013106262</v>
+        <v>9.938736484128412</v>
       </c>
       <c r="M15">
-        <v>13.49639010120098</v>
+        <v>13.97962869724809</v>
       </c>
       <c r="N15">
-        <v>11.99777379102702</v>
+        <v>17.16154295863656</v>
       </c>
       <c r="O15">
-        <v>12.0718947337901</v>
+        <v>18.4203627915428</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.883090047935</v>
+        <v>14.1943218707189</v>
       </c>
       <c r="C16">
-        <v>12.51304240975178</v>
+        <v>11.89982929121187</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>7.270322751120374</v>
+        <v>12.90225417881469</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>19.36417622986501</v>
+        <v>22.64399248143276</v>
       </c>
       <c r="H16">
-        <v>7.390493719157741</v>
+        <v>12.65244403007964</v>
       </c>
       <c r="I16">
-        <v>10.9698520050374</v>
+        <v>19.58357880273455</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>6.60793224627334</v>
+        <v>9.937570306560124</v>
       </c>
       <c r="M16">
-        <v>13.0963701545477</v>
+        <v>13.90056308972107</v>
       </c>
       <c r="N16">
-        <v>12.02617353768942</v>
+        <v>17.17818982941705</v>
       </c>
       <c r="O16">
-        <v>11.99429303984572</v>
+        <v>18.45235316951662</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.43823409244569</v>
+        <v>13.99622302254592</v>
       </c>
       <c r="C17">
-        <v>12.37044424210281</v>
+        <v>11.8510352729396</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>7.310889445158793</v>
+        <v>12.92024806260325</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>19.116596216749</v>
+        <v>22.64074972179023</v>
       </c>
       <c r="H17">
-        <v>7.398851132899507</v>
+        <v>12.6678430275445</v>
       </c>
       <c r="I17">
-        <v>11.04019304957948</v>
+        <v>19.62157925654447</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>6.561618086557989</v>
+        <v>9.93721410749267</v>
       </c>
       <c r="M17">
-        <v>12.84502119670612</v>
+        <v>13.8522232800249</v>
       </c>
       <c r="N17">
-        <v>12.04471617908198</v>
+        <v>17.18884957889132</v>
       </c>
       <c r="O17">
-        <v>11.95062471149522</v>
+        <v>18.47315949502004</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.17821343004349</v>
+        <v>13.8810241614674</v>
       </c>
       <c r="C18">
-        <v>12.2876827306105</v>
+        <v>11.82284973585101</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.334570131079908</v>
+        <v>12.93076203247024</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>18.97584708503978</v>
+        <v>22.63975650537301</v>
       </c>
       <c r="H18">
-        <v>7.404305275205994</v>
+        <v>12.67690699549336</v>
       </c>
       <c r="I18">
-        <v>11.0818839248128</v>
+        <v>19.643819822875</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>6.535141778102756</v>
+        <v>9.937141585640839</v>
       </c>
       <c r="M18">
-        <v>12.69826233748567</v>
+        <v>13.82448688158734</v>
       </c>
       <c r="N18">
-        <v>12.05578565066659</v>
+        <v>17.19514541761832</v>
       </c>
       <c r="O18">
-        <v>11.92692914301407</v>
+        <v>18.48556012470007</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.0894605453833</v>
+        <v>13.84180681238173</v>
       </c>
       <c r="C19">
-        <v>12.25953527856094</v>
+        <v>11.81328640271052</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.342647299844909</v>
+        <v>12.9343501327563</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>18.92847922907579</v>
+        <v>22.63956992708793</v>
       </c>
       <c r="H19">
-        <v>7.40626140337115</v>
+        <v>12.68001142397575</v>
       </c>
       <c r="I19">
-        <v>11.09620697680124</v>
+        <v>19.65141599096149</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>6.526205805113296</v>
+        <v>9.937139794713456</v>
       </c>
       <c r="M19">
-        <v>12.64819600711373</v>
+        <v>13.81510804710358</v>
       </c>
       <c r="N19">
-        <v>12.05960231588527</v>
+        <v>17.19730537548047</v>
       </c>
       <c r="O19">
-        <v>11.91914780585591</v>
+        <v>18.48983312799159</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.48601908295946</v>
+        <v>14.01744184960915</v>
       </c>
       <c r="C20">
-        <v>12.38570135084407</v>
+        <v>11.85624207094055</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>7.306534950236602</v>
+        <v>12.91831557692848</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>19.14278137438414</v>
+        <v>22.64100466722373</v>
       </c>
       <c r="H20">
-        <v>7.397894085269567</v>
+        <v>12.66618236613522</v>
       </c>
       <c r="I20">
-        <v>11.03257649045045</v>
+        <v>19.61749432879983</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>6.566531636704738</v>
+        <v>9.937238334911411</v>
       </c>
       <c r="M20">
-        <v>12.87200427582029</v>
+        <v>13.85736231864973</v>
       </c>
       <c r="N20">
-        <v>12.04270028033333</v>
+        <v>17.18769779605317</v>
       </c>
       <c r="O20">
-        <v>11.95512558340071</v>
+        <v>18.47089975609661</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.76890623498311</v>
+        <v>14.59231570998185</v>
       </c>
       <c r="C21">
-        <v>12.80060422134267</v>
+        <v>11.99909055653253</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>7.189391871976014</v>
+        <v>12.86640390555427</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>19.8822843088785</v>
+        <v>22.65624470148373</v>
       </c>
       <c r="H21">
-        <v>7.377640772091026</v>
+        <v>12.62219072195697</v>
       </c>
       <c r="I21">
-        <v>10.83385600867809</v>
+        <v>19.50810734862794</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>6.703919592203693</v>
+        <v>9.939148332785482</v>
       </c>
       <c r="M21">
-        <v>13.59783098487289</v>
+        <v>14.00008701469566</v>
       </c>
       <c r="N21">
-        <v>11.99079411725972</v>
+        <v>17.15738322745819</v>
       </c>
       <c r="O21">
-        <v>12.09316766303592</v>
+        <v>18.41246928690029</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.570698400212</v>
+        <v>14.9562198789134</v>
       </c>
       <c r="C22">
-        <v>13.06479459972953</v>
+        <v>12.09126632653091</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>7.116035791493511</v>
+        <v>12.83393560091728</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>20.37951119647081</v>
+        <v>22.6739712907798</v>
       </c>
       <c r="H22">
-        <v>7.370555104863767</v>
+        <v>12.59528310340322</v>
       </c>
       <c r="I22">
-        <v>10.71602200538694</v>
+        <v>19.44003562232081</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>6.795032441966812</v>
+        <v>9.941567696680851</v>
       </c>
       <c r="M22">
-        <v>14.0527793729257</v>
+        <v>14.09381772157382</v>
       </c>
       <c r="N22">
-        <v>11.9606319955651</v>
+        <v>17.13903263970085</v>
       </c>
       <c r="O22">
-        <v>12.19657320255201</v>
+        <v>18.37815600280654</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.14610437757886</v>
+        <v>14.76310502877205</v>
       </c>
       <c r="C23">
-        <v>12.92444519280707</v>
+        <v>12.04218400820078</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>7.15488866236311</v>
+        <v>12.85113127345216</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>20.11289590039318</v>
+        <v>22.66379991613414</v>
       </c>
       <c r="H23">
-        <v>7.373755023124098</v>
+        <v>12.60947546611706</v>
       </c>
       <c r="I23">
-        <v>10.77775611073599</v>
+        <v>19.47605383396446</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>6.746288739935881</v>
+        <v>9.940169665040834</v>
       </c>
       <c r="M23">
-        <v>13.81173733600969</v>
+        <v>14.04375770305492</v>
       </c>
       <c r="N23">
-        <v>11.97637781630742</v>
+        <v>17.14869315294709</v>
       </c>
       <c r="O23">
-        <v>12.14015291517989</v>
+        <v>18.3961144294617</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.46442878311904</v>
+        <v>14.00785288863796</v>
       </c>
       <c r="C24">
-        <v>12.37880603712037</v>
+        <v>11.85388849124389</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>7.308502502337348</v>
+        <v>12.91918872709464</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>19.13093810968022</v>
+        <v>22.64088669310504</v>
       </c>
       <c r="H24">
-        <v>7.3983247481845</v>
+        <v>12.66693249429789</v>
       </c>
       <c r="I24">
-        <v>11.03601605210006</v>
+        <v>19.61933989862282</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>6.564309751082181</v>
+        <v>9.937226969636653</v>
       </c>
       <c r="M24">
-        <v>12.85981225029374</v>
+        <v>13.85503878692751</v>
       </c>
       <c r="N24">
-        <v>12.04361039578972</v>
+        <v>17.18821799556755</v>
       </c>
       <c r="O24">
-        <v>11.95308635366644</v>
+        <v>18.47192001742074</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.49158782485594</v>
+        <v>13.14559944123111</v>
       </c>
       <c r="C25">
-        <v>11.76212709236484</v>
+        <v>11.64624246136419</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.487449499166232</v>
+        <v>12.99888671096407</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>18.13537517512513</v>
+        <v>22.64948776594514</v>
       </c>
       <c r="H25">
-        <v>7.44935226639218</v>
+        <v>12.7368176454013</v>
       </c>
       <c r="I25">
-        <v>11.36121128205959</v>
+        <v>19.78856670991416</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>6.374299292794812</v>
+        <v>9.939116496914533</v>
       </c>
       <c r="M25">
-        <v>11.74929546015382</v>
+        <v>13.65413739703139</v>
       </c>
       <c r="N25">
-        <v>12.13150203549546</v>
+        <v>17.23714877715621</v>
       </c>
       <c r="O25">
-        <v>11.80525524378122</v>
+        <v>18.57024746162893</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.47380400797446</v>
+        <v>25.32411987805661</v>
       </c>
       <c r="C2">
-        <v>11.49003351170286</v>
+        <v>18.7399373032167</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>13.06301130762026</v>
+        <v>30.11501151211111</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>22.68433865537384</v>
+        <v>2.042964339649509</v>
       </c>
       <c r="H2">
-        <v>12.79507591132591</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>19.9257970454268</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.944895321098828</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.50925961736414</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>17.27861987639285</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>18.6568047516667</v>
+        <v>10.00776979744791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.99802600893717</v>
+        <v>23.65093290008939</v>
       </c>
       <c r="C3">
-        <v>11.38240386900718</v>
+        <v>17.59892880254954</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.10988307142015</v>
+        <v>27.9018347536427</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>22.72562814167759</v>
+        <v>2.050148574798879</v>
       </c>
       <c r="H3">
-        <v>12.83880148355165</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>20.0266850126439</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.951562977953566</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>13.41335161166051</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>17.31013520986431</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>18.72425339380221</v>
+        <v>10.02320152997474</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.69680833864881</v>
+        <v>22.56582448443544</v>
       </c>
       <c r="C4">
-        <v>11.31555334519014</v>
+        <v>16.86211098367609</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.14035251059573</v>
+        <v>26.48155329336401</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>22.75964313504788</v>
+        <v>2.054652024850566</v>
       </c>
       <c r="H4">
-        <v>12.86774228358949</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20.09252285375984</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.957018337594677</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.35571125051987</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>17.33117255928149</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>18.76998623788411</v>
+        <v>10.07194511651558</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.57194905493191</v>
+        <v>22.10901508844902</v>
       </c>
       <c r="C5">
-        <v>11.28813507493338</v>
+        <v>16.55278232384821</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>13.15319484849389</v>
+        <v>25.88693389988021</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>22.77567392861717</v>
+        <v>2.056512037928514</v>
       </c>
       <c r="H5">
-        <v>12.8800622004815</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>20.12033130832761</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.959584419035821</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.33255473622666</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>17.34017032634518</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>18.7897064263958</v>
+        <v>10.10085036949483</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.5510942746371</v>
+        <v>22.03227685457029</v>
       </c>
       <c r="C6">
-        <v>11.28357213309028</v>
+        <v>16.50087260560731</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>13.15535305045017</v>
+        <v>25.78722954982208</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>22.77846656609839</v>
+        <v>2.056822435541969</v>
       </c>
       <c r="H6">
-        <v>12.88213970017756</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>20.12500801894072</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.96003124736372</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.32873022712324</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>17.34169008121707</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>18.79304632902677</v>
+        <v>10.10617158829855</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.69513274353571</v>
+        <v>22.55972309750947</v>
       </c>
       <c r="C7">
-        <v>11.31518426432972</v>
+        <v>16.85797591292004</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.140523981713</v>
+        <v>26.47359871486697</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>22.75985056101797</v>
+        <v>2.054677007099472</v>
       </c>
       <c r="H7">
-        <v>12.86790630333737</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>20.09289392397929</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.957051555159461</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.35539758347705</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>17.33129218505649</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>18.77024780666973</v>
+        <v>10.07229944340948</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.31174079459681</v>
+        <v>24.75913307371571</v>
       </c>
       <c r="C8">
-        <v>11.45309145897932</v>
+        <v>18.35405363945912</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>13.07882243679675</v>
+        <v>29.36439225694226</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>22.6967722678841</v>
+        <v>2.045423317743703</v>
       </c>
       <c r="H8">
-        <v>12.80971804636787</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>19.95977554324811</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.946912179348276</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>13.47594297312209</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>17.28913669544918</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>18.67916320069676</v>
+        <v>10.00444714095562</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.44208439500214</v>
+        <v>28.61883936458583</v>
       </c>
       <c r="C9">
-        <v>11.71674403712448</v>
+        <v>21.00004657338132</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>12.97119717137042</v>
+        <v>34.5664418343452</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994148621</v>
       </c>
       <c r="G9">
-        <v>22.64214836870593</v>
+        <v>2.027929014876286</v>
       </c>
       <c r="H9">
-        <v>12.71222010044221</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>19.72960143494831</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.937800506432897</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>13.72138896475573</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>17.21982264117936</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>18.53492050689511</v>
+        <v>10.21800851839618</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.21675368158522</v>
+        <v>31.18624182723953</v>
       </c>
       <c r="C10">
-        <v>11.90538031655529</v>
+        <v>22.77011181655754</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>12.90022320722878</v>
+        <v>38.13536630944952</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847226</v>
       </c>
       <c r="G10">
-        <v>22.64448068034298</v>
+        <v>2.015348652943639</v>
       </c>
       <c r="H10">
-        <v>12.65071493353515</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>19.57929468700943</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.937628861146228</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>13.90608762386075</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>17.17699577142696</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>18.45003780088664</v>
+        <v>10.92582381810782</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.55574407043208</v>
+        <v>32.29801659723911</v>
       </c>
       <c r="C11">
-        <v>11.98990146607355</v>
+        <v>23.53839228648934</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>12.86968260145963</v>
+        <v>39.71217304040407</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.14805722232853</v>
       </c>
       <c r="G11">
-        <v>22.65480444730221</v>
+        <v>2.009652720829406</v>
       </c>
       <c r="H11">
-        <v>12.62493389391979</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>19.5149962337515</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>9.93895619001559</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>13.99080999833205</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>17.15926230537164</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>18.41602991301787</v>
+        <v>11.51754032424345</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.68209218737356</v>
+        <v>32.71113443129958</v>
       </c>
       <c r="C12">
-        <v>12.02170591716328</v>
+        <v>23.82410255243887</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>12.85836789575746</v>
+        <v>40.30334200385253</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363783</v>
       </c>
       <c r="G12">
-        <v>22.66004641909764</v>
+        <v>2.007496625934455</v>
       </c>
       <c r="H12">
-        <v>12.61548742873228</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>19.49123434641975</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>9.939659829749102</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>14.02297177251179</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>17.15279785633062</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>18.40381640459896</v>
+        <v>11.74383010382142</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.65497203563313</v>
+        <v>32.62250968940825</v>
       </c>
       <c r="C13">
-        <v>12.0148654937222</v>
+        <v>23.76280027101917</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>12.86079359609396</v>
+        <v>40.17627337001151</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>22.65885820889567</v>
+        <v>2.007960995418186</v>
       </c>
       <c r="H13">
-        <v>12.61750782548506</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>19.49632580212326</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>9.939499366636175</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>14.01604198002618</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>17.15417894540696</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>18.40641721205926</v>
+        <v>11.69499448032681</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.56617977441014</v>
+        <v>32.33216097285707</v>
       </c>
       <c r="C14">
-        <v>11.99252217536952</v>
+        <v>23.56200188403483</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.86874672013202</v>
+        <v>39.76092288563903</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503956</v>
       </c>
       <c r="G14">
-        <v>22.655209003339</v>
+        <v>2.009475339828282</v>
       </c>
       <c r="H14">
-        <v>12.62415038823614</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>19.513029571923</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>9.939010056890757</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>13.99345450292876</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>17.1587254478653</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>18.41501176950575</v>
+        <v>11.53611237714785</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.51152635528995</v>
+        <v>32.1532927749015</v>
       </c>
       <c r="C15">
-        <v>11.97880947999729</v>
+        <v>23.43833019934497</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>12.87365082221489</v>
+        <v>39.5057612039858</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309154514</v>
       </c>
       <c r="G15">
-        <v>22.65314728913081</v>
+        <v>2.010402930525269</v>
       </c>
       <c r="H15">
-        <v>12.62826034108641</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>19.5233375079799</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>9.938736484128412</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>13.97962869724809</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>17.16154295863656</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>18.4203627915428</v>
+        <v>11.43908380301728</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.1943218707189</v>
+        <v>31.11247037983962</v>
       </c>
       <c r="C16">
-        <v>11.89982929121187</v>
+        <v>22.71916691181725</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>12.90225417881469</v>
+        <v>38.03144276943166</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028804</v>
       </c>
       <c r="G16">
-        <v>22.64399248143276</v>
+        <v>2.015721186437898</v>
       </c>
       <c r="H16">
-        <v>12.65244403007964</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>19.58357880273455</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.937570306560124</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>13.90056308972107</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>17.17818982941705</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>18.45235316951662</v>
+        <v>10.88746106951971</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.99622302254592</v>
+        <v>30.45970497698804</v>
       </c>
       <c r="C17">
-        <v>11.8510352729396</v>
+        <v>22.26858161915634</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.92024806260325</v>
+        <v>37.11555521519465</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>22.64074972179023</v>
+        <v>2.018988620534516</v>
       </c>
       <c r="H17">
-        <v>12.6678430275445</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>19.62157925654447</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.93721410749267</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>13.8522232800249</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>17.18884957889132</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>18.47315949502004</v>
+        <v>10.55296015544423</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.8810241614674</v>
+        <v>30.07895414275025</v>
       </c>
       <c r="C18">
-        <v>11.82284973585101</v>
+        <v>22.00593403749807</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.93076203247024</v>
+        <v>36.58431097575242</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239627</v>
       </c>
       <c r="G18">
-        <v>22.63975650537301</v>
+        <v>2.020870701531121</v>
       </c>
       <c r="H18">
-        <v>12.67690699549336</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>19.643819822875</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.937141585640839</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>13.82448688158734</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>17.19514541761832</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>18.48556012470007</v>
+        <v>10.42367594957637</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.84180681238173</v>
+        <v>29.94912324688266</v>
       </c>
       <c r="C19">
-        <v>11.81328640271052</v>
+        <v>21.91640551628036</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.9343501327563</v>
+        <v>36.40365440112805</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.1517249415007</v>
       </c>
       <c r="G19">
-        <v>22.63956992708793</v>
+        <v>2.021508498673817</v>
       </c>
       <c r="H19">
-        <v>12.68001142397575</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>19.65141599096149</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.937139794713456</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>13.81510804710358</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>17.19730537548047</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>18.48983312799159</v>
+        <v>10.40245059968073</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.01744184960915</v>
+        <v>30.52973994403181</v>
       </c>
       <c r="C20">
-        <v>11.85624207094055</v>
+        <v>22.31690707181297</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.91831557692848</v>
+        <v>37.2135082329081</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>22.64100466722373</v>
+        <v>2.018640533871757</v>
       </c>
       <c r="H20">
-        <v>12.66618236613522</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>19.61749432879983</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.937238334911411</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>13.85736231864973</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>17.18769779605317</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>18.47089975609661</v>
+        <v>10.58842022082456</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.59231570998185</v>
+        <v>32.41765588722732</v>
       </c>
       <c r="C21">
-        <v>11.99909055653253</v>
+        <v>23.62112210665498</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>12.86640390555427</v>
+        <v>39.88307560932383</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>22.65624470148373</v>
+        <v>2.009030543884644</v>
       </c>
       <c r="H21">
-        <v>12.62219072195697</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>19.50810734862794</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>9.939148332785482</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>14.00008701469566</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>17.15738322745819</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>18.41246928690029</v>
+        <v>11.58271902265016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.9562198789134</v>
+        <v>33.60564843028839</v>
       </c>
       <c r="C22">
-        <v>12.09126632653091</v>
+        <v>24.44312823346747</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>12.83393560091728</v>
+        <v>41.59365781652885</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026786</v>
       </c>
       <c r="G22">
-        <v>22.6739712907798</v>
+        <v>2.002752984204867</v>
       </c>
       <c r="H22">
-        <v>12.59528310340322</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>19.44003562232081</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>9.941567696680851</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>14.09381772157382</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>17.13903263970085</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>18.37815600280654</v>
+        <v>12.24556733358138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.76310502877205</v>
+        <v>32.97572403025816</v>
       </c>
       <c r="C23">
-        <v>12.04218400820078</v>
+        <v>24.00715189404315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>12.85113127345216</v>
+        <v>40.68352117723845</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>22.66379991613414</v>
+        <v>2.006104265197473</v>
       </c>
       <c r="H23">
-        <v>12.60947546611706</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>19.47605383396446</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>9.940169665040834</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>14.04375770305492</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>17.14869315294709</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>18.3961144294617</v>
+        <v>11.89056972004006</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.00785288863796</v>
+        <v>30.49809417874154</v>
       </c>
       <c r="C24">
-        <v>11.85388849124389</v>
+        <v>22.29507035466168</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.91918872709464</v>
+        <v>37.16923833412839</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.85121910575441</v>
       </c>
       <c r="G24">
-        <v>22.64088669310504</v>
+        <v>2.018797892446858</v>
       </c>
       <c r="H24">
-        <v>12.66693249429789</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>19.61933989862282</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.937226969636653</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>13.85503878692751</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>17.18821799556755</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>18.47192001742074</v>
+        <v>10.57238453358767</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.14559944123111</v>
+        <v>27.62244648926008</v>
       </c>
       <c r="C25">
-        <v>11.64624246136419</v>
+        <v>20.31498054058137</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.99888671096407</v>
+        <v>33.20608065786299</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126707</v>
       </c>
       <c r="G25">
-        <v>22.64948776594514</v>
+        <v>2.032603938792596</v>
       </c>
       <c r="H25">
-        <v>12.7368176454013</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>19.78856670991416</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.939116496914533</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.65413739703139</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>17.23714877715621</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>18.57024746162893</v>
+        <v>10.11843431121907</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,34 +415,40 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.32411987805661</v>
+        <v>24.44203320806739</v>
       </c>
       <c r="C2">
-        <v>18.7399373032167</v>
+        <v>18.84696558993398</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>30.11501151211111</v>
+        <v>29.10297987559867</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.042964339649509</v>
+        <v>2.074590087927766</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.088493005750388</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.035118868523984</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -460,36 +466,42 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>10.00776979744791</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>12.35706316396353</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.65093290008939</v>
+        <v>22.83966227149649</v>
       </c>
       <c r="C3">
-        <v>17.59892880254954</v>
+        <v>17.74281587893996</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.9018347536427</v>
+        <v>27.21929875711209</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.050148574798879</v>
+        <v>2.079208546082102</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.836024138672122</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>2.848589904692556</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -507,36 +519,42 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.02320152997474</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>12.38687009851556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.56582448443544</v>
+        <v>21.79647256604595</v>
       </c>
       <c r="C4">
-        <v>16.86211098367609</v>
+        <v>17.03511653567039</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>26.48155329336401</v>
+        <v>25.99820322836764</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.054652024850566</v>
+        <v>2.082123083511462</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2.675904857704086</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>2.731546780998094</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -554,36 +572,42 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>10.07194511651558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>12.41585092341945</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.10901508844902</v>
+        <v>21.35621354739074</v>
       </c>
       <c r="C5">
-        <v>16.55278232384821</v>
+        <v>16.75532648544933</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.88693389988021</v>
+        <v>25.48410830071231</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.056512037928514</v>
+        <v>2.08333749721824</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2.609196482298799</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2.683758452751858</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -601,36 +625,42 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>10.10085036949483</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>12.41818268918603</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.03227685457029</v>
+        <v>21.28198037092369</v>
       </c>
       <c r="C6">
-        <v>16.50087260560731</v>
+        <v>16.72797386482366</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.78722954982208</v>
+        <v>25.39747270196276</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.056822435541969</v>
+        <v>2.083548146794151</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2.597858487214508</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>2.67667007640145</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -648,36 +678,42 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>10.10617158829855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>12.40409001943633</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.55972309750947</v>
+        <v>21.79000358901318</v>
       </c>
       <c r="C7">
-        <v>16.85797591292004</v>
+        <v>17.0836837159498</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>26.47359871486697</v>
+        <v>25.99057113783744</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.054677007099472</v>
+        <v>2.082160028221121</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2.674527199084792</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2.73294046816096</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -695,36 +731,42 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>10.07229944340948</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>12.3759135446574</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.75913307371571</v>
+        <v>23.90110580739896</v>
       </c>
       <c r="C8">
-        <v>18.35405363945912</v>
+        <v>18.53713660972423</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>29.36439225694226</v>
+        <v>28.46593590418489</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.045423317743703</v>
+        <v>2.076191516467308</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.001896732025158</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2.973396459317862</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -742,36 +784,42 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>10.00444714095562</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12.31224163640329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.61883936458583</v>
+        <v>27.57374681621414</v>
       </c>
       <c r="C9">
-        <v>21.00004657338132</v>
+        <v>21.06322662440904</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>34.5664418343452</v>
+        <v>32.81177959401182</v>
       </c>
       <c r="F9">
-        <v>34.45877994148621</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.027929014876286</v>
+        <v>2.065054368291491</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.605405909905927</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.423665765667716</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -789,36 +837,42 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.21800851839618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.35238757153956</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.18624182723953</v>
+        <v>29.98614386499839</v>
       </c>
       <c r="C10">
-        <v>22.77011181655754</v>
+        <v>22.78281571823191</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>38.13536630944952</v>
+        <v>34.81845501346145</v>
       </c>
       <c r="F10">
-        <v>37.72874519847226</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.015348652943639</v>
+        <v>2.057458811773576</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.988946928542628</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.736638134123395</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -836,36 +890,42 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.92582381810782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>12.24911581074428</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.29801659723911</v>
+        <v>30.98913199129817</v>
       </c>
       <c r="C11">
-        <v>23.53839228648934</v>
+        <v>23.5276983654226</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>39.71217304040407</v>
+        <v>28.19970325489762</v>
       </c>
       <c r="F11">
-        <v>39.14805722232853</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.009652720829406</v>
+        <v>2.056048955446314</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>4.363004919039285</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.813055882061238</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -883,36 +943,42 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.51754032424345</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.60995957521653</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.71113443129958</v>
+        <v>31.35004852353508</v>
       </c>
       <c r="C12">
-        <v>23.82410255243887</v>
+        <v>23.74901306499072</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>40.30334200385253</v>
+        <v>22.22741410821495</v>
       </c>
       <c r="F12">
-        <v>39.67592721363783</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>2.007496625934455</v>
+        <v>2.056138000304308</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>5.194176224208084</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.818597355070494</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -930,36 +996,42 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.74383010382142</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.353023736880822</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.62250968940825</v>
+        <v>31.25088158632379</v>
       </c>
       <c r="C13">
-        <v>23.76280027101917</v>
+        <v>23.65023313447444</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>40.17627337001151</v>
+        <v>16.26867070894637</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>39.56266403260141</v>
       </c>
       <c r="G13">
-        <v>2.007960995418186</v>
+        <v>2.057413512068175</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>6.236608493544933</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.772551690495254</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -977,36 +1049,42 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.69499448032681</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>8.290899026637641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.33216097285707</v>
+        <v>30.97254068092476</v>
       </c>
       <c r="C14">
-        <v>23.56200188403483</v>
+        <v>23.44830300179416</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>39.76092288563903</v>
+        <v>12.15185350365515</v>
       </c>
       <c r="F14">
-        <v>39.19167637503956</v>
+        <v>39.19167637503955</v>
       </c>
       <c r="G14">
-        <v>2.009475339828282</v>
+        <v>2.05881421359701</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>7.048640274489213</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.718820774063392</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1024,36 +1102,42 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.53611237714785</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>7.679572363002444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.1532927749015</v>
+        <v>30.80461385637753</v>
       </c>
       <c r="C15">
-        <v>23.43833019934497</v>
+        <v>23.34558237144737</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>39.5057612039858</v>
+        <v>11.15838202501593</v>
       </c>
       <c r="F15">
-        <v>38.96319309154514</v>
+        <v>38.96319309154519</v>
       </c>
       <c r="G15">
-        <v>2.010402930525269</v>
+        <v>2.059450794555832</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.235452416534259</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.694579654922206</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1071,36 +1155,42 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.43908380301728</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>7.564588137226314</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.11247037983962</v>
+        <v>29.83697721518885</v>
       </c>
       <c r="C16">
-        <v>22.71916691181725</v>
+        <v>22.68254275152986</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>38.03144276943166</v>
+        <v>11.03148977964519</v>
       </c>
       <c r="F16">
-        <v>37.63463543028804</v>
+        <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>2.015721186437898</v>
+        <v>2.062423489103157</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.956584697444812</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.57248588621878</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1118,36 +1208,42 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.88746106951971</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>7.84554067513369</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.45970497698804</v>
+        <v>29.23249465694806</v>
       </c>
       <c r="C17">
-        <v>22.26858161915634</v>
+        <v>22.27711622888291</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>37.11555521519465</v>
+        <v>13.16979185832945</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>2.018988620534516</v>
+        <v>2.063986648275573</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.259689038952388</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.506740137722629</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1165,36 +1261,42 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.55296015544423</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>8.34751817710624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.07895414275025</v>
+        <v>28.88806045113154</v>
       </c>
       <c r="C18">
-        <v>22.00593403749807</v>
+        <v>22.02207056761154</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>36.58431097575242</v>
+        <v>17.77846362769008</v>
       </c>
       <c r="F18">
-        <v>36.31710943239627</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>2.020870701531121</v>
+        <v>2.06435770034855</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.208191250710124</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.483770216728731</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1212,36 +1314,42 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.42367594957637</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.196277153378322</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.94912324688266</v>
+        <v>28.78573596160535</v>
       </c>
       <c r="C19">
-        <v>21.91640551628036</v>
+        <v>21.99724137916831</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>36.40365440112805</v>
+        <v>24.09017544112831</v>
       </c>
       <c r="F19">
-        <v>36.1517249415007</v>
+        <v>36.15172494157628</v>
       </c>
       <c r="G19">
-        <v>2.021508498673817</v>
+        <v>2.06355673304564</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>4.203674210356176</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.510109423029152</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1259,36 +1367,42 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.40245059968073</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.30637980383547</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.52973994403181</v>
+        <v>29.36994224364193</v>
       </c>
       <c r="C20">
-        <v>22.31690707181297</v>
+        <v>22.47117424633232</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>37.2135082329081</v>
+        <v>34.26195047441796</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.89155697731405</v>
       </c>
       <c r="G20">
-        <v>2.018640533871757</v>
+        <v>2.059490617123217</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.885903704122933</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.661417876351462</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1306,36 +1420,42 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.58842022082456</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>12.14207563652499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.41765588722732</v>
+        <v>31.14031637185252</v>
       </c>
       <c r="C21">
-        <v>23.62112210665498</v>
+        <v>23.72247329305273</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>39.88307560932383</v>
+        <v>37.07871738542332</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>39.30090300329764</v>
       </c>
       <c r="G21">
-        <v>2.009030543884644</v>
+        <v>2.053352768375857</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>4.23328627974108</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.910458954364719</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1353,36 +1473,42 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.58271902265016</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>12.39798088908662</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.60564843028839</v>
+        <v>32.24582736873757</v>
       </c>
       <c r="C22">
-        <v>24.44312823346747</v>
+        <v>24.45927401169999</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>41.59365781652885</v>
+        <v>38.41072874542704</v>
       </c>
       <c r="F22">
-        <v>40.81974568026786</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>2.002752984204867</v>
+        <v>2.04949885807256</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>4.437500208399032</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.064962419585963</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1400,36 +1526,42 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>12.24556733358138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>12.53785161000876</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.97572403025816</v>
+        <v>31.66081456157726</v>
       </c>
       <c r="C23">
-        <v>24.00715189404315</v>
+        <v>24.02204715964877</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>40.68352117723845</v>
+        <v>37.70533021189991</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038423</v>
       </c>
       <c r="G23">
-        <v>2.006104265197473</v>
+        <v>2.051535087094432</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>4.329204449148691</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.980112862467066</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1447,36 +1579,42 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.89056972004006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>12.50695879399949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.49809417874154</v>
+        <v>29.34433357278468</v>
       </c>
       <c r="C24">
-        <v>22.29507035466168</v>
+        <v>22.38175343983262</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>37.16923833412839</v>
+        <v>34.92431075091877</v>
       </c>
       <c r="F24">
-        <v>36.85121910575441</v>
+        <v>36.85121910575438</v>
       </c>
       <c r="G24">
-        <v>2.018797892446858</v>
+        <v>2.059365719521751</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.911645361426302</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.659562859030714</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1494,36 +1632,42 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.57238453358767</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>12.35302567892434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.62244648926008</v>
+        <v>26.62906082532858</v>
       </c>
       <c r="C25">
-        <v>20.31498054058137</v>
+        <v>20.48661691095564</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>33.20608065786299</v>
+        <v>31.68916615529492</v>
       </c>
       <c r="F25">
-        <v>33.19272459126707</v>
+        <v>33.19272459126713</v>
       </c>
       <c r="G25">
-        <v>2.032603938792596</v>
+        <v>2.068037050274845</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.4454408294904</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.307174285318241</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1541,7 +1685,13 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.11843431121907</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.25882305573177</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -427,52 +427,52 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.44203320806739</v>
+        <v>13.02861932284055</v>
       </c>
       <c r="C2">
-        <v>18.84696558993398</v>
+        <v>8.569662946551231</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>29.10297987559867</v>
+        <v>10.50082289536295</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>25.62625348339416</v>
       </c>
       <c r="G2">
-        <v>2.074590087927766</v>
+        <v>21.74820039804689</v>
       </c>
       <c r="H2">
-        <v>3.088493005750388</v>
+        <v>3.053226816130268</v>
       </c>
       <c r="I2">
-        <v>3.035118868523984</v>
+        <v>3.538666733496659</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>9.296299595838775</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>15.76598550392082</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.044561292358783</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.96516862887253</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.999882477529624</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>10.61967451624643</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.35706316396353</v>
+        <v>14.89822493704312</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -480,52 +480,52 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.83966227149649</v>
+        <v>12.19841279471968</v>
       </c>
       <c r="C3">
-        <v>17.74281587893996</v>
+        <v>8.505250438515951</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>27.21929875711209</v>
+        <v>10.2877821554589</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>25.22709038634671</v>
       </c>
       <c r="G3">
-        <v>2.079208546082102</v>
+        <v>21.79468693089202</v>
       </c>
       <c r="H3">
-        <v>2.836024138672122</v>
+        <v>3.235460507316961</v>
       </c>
       <c r="I3">
-        <v>2.848589904692556</v>
+        <v>3.668822115300884</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>9.368985677659857</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15.89597223509073</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.934134461009031</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>10.45483259187278</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>7.764859388382139</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.16918417561918</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>12.38687009851556</v>
+        <v>14.99947803209967</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -533,52 +533,52 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.79647256604595</v>
+        <v>11.6571689229932</v>
       </c>
       <c r="C4">
-        <v>17.03511653567039</v>
+        <v>8.465132433992158</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>25.99820322836764</v>
+        <v>10.1547045017551</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>24.98649753320893</v>
       </c>
       <c r="G4">
-        <v>2.082123083511462</v>
+        <v>21.83376799832902</v>
       </c>
       <c r="H4">
-        <v>2.675904857704086</v>
+        <v>3.351631712680584</v>
       </c>
       <c r="I4">
-        <v>2.731546780998094</v>
+        <v>3.752433245919112</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>9.415900871041279</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>15.97927707254488</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.864498096110779</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>10.12795294495377</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>7.618095185223442</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.882927674822842</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12.41585092341945</v>
+        <v>15.06663108283969</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -586,52 +586,52 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.35621354739074</v>
+        <v>11.4264948371819</v>
       </c>
       <c r="C5">
-        <v>16.75532648544933</v>
+        <v>8.449667190587208</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>25.48410830071231</v>
+        <v>10.09897067073197</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>24.88304850659759</v>
       </c>
       <c r="G5">
-        <v>2.08333749721824</v>
+        <v>21.84264448833898</v>
       </c>
       <c r="H5">
-        <v>2.609196482298799</v>
+        <v>3.400304493701457</v>
       </c>
       <c r="I5">
-        <v>2.683758452751858</v>
+        <v>3.789932231622253</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>9.434054593366103</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>16.0100689393175</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.836278205758413</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.992753199387783</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>7.559466808557441</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.764546016544125</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>12.41818268918603</v>
+        <v>15.09136624899707</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -639,52 +639,52 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.28198037092369</v>
+        <v>11.38503062461939</v>
       </c>
       <c r="C6">
-        <v>16.72797386482366</v>
+        <v>8.448380540883353</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>25.39747270196276</v>
+        <v>10.08848603468998</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>24.85784314962572</v>
       </c>
       <c r="G6">
-        <v>2.083548146794151</v>
+        <v>21.83253168623203</v>
       </c>
       <c r="H6">
-        <v>2.597858487214508</v>
+        <v>3.408750433317556</v>
       </c>
       <c r="I6">
-        <v>2.67667007640145</v>
+        <v>3.799407368761256</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>9.435230635617753</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>16.01032178847491</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.832313056614922</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.971704980860254</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>7.55181923703266</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.74544234410715</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>12.40409001943633</v>
+        <v>15.09083972823652</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -692,52 +692,52 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.79000358901318</v>
+        <v>11.64693513424012</v>
       </c>
       <c r="C7">
-        <v>17.0836837159498</v>
+        <v>8.468490510478913</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>25.99057113783744</v>
+        <v>10.15071139231475</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>24.96311165870429</v>
       </c>
       <c r="G7">
-        <v>2.082160028221121</v>
+        <v>21.80185631689224</v>
       </c>
       <c r="H7">
-        <v>2.674527199084792</v>
+        <v>3.35308009916354</v>
       </c>
       <c r="I7">
-        <v>2.73294046816096</v>
+        <v>3.761364205205981</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>9.411042797915927</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>15.96629298148388</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.866171921188112</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>10.13045622549646</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>7.62303527336434</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.883182320101144</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>12.3759135446574</v>
+        <v>15.05412352022371</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -745,52 +745,52 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.90110580739896</v>
+        <v>12.74015199360798</v>
       </c>
       <c r="C8">
-        <v>18.53713660972423</v>
+        <v>8.552531681890457</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>28.46593590418489</v>
+        <v>10.42372555847815</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>25.45935841582407</v>
       </c>
       <c r="G8">
-        <v>2.076191516467308</v>
+        <v>21.71985173513531</v>
       </c>
       <c r="H8">
-        <v>3.001896732025158</v>
+        <v>3.116160368576153</v>
       </c>
       <c r="I8">
-        <v>2.973396459317862</v>
+        <v>3.593446981861867</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>9.314190376514247</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>15.79245141257441</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.009626388675274</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>10.79754986670433</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.92671304693677</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>10.4687056005847</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12.31224163640329</v>
+        <v>14.91518489089885</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -798,52 +798,52 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.57374681621414</v>
+        <v>14.64579886677154</v>
       </c>
       <c r="C9">
-        <v>21.06322662440904</v>
+        <v>8.706487891314044</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>32.81177959401182</v>
+        <v>10.94461038234597</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>26.50224095692857</v>
       </c>
       <c r="G9">
-        <v>2.065054368291491</v>
+        <v>21.70396085381348</v>
       </c>
       <c r="H9">
-        <v>3.605405909905927</v>
+        <v>2.68367595847089</v>
       </c>
       <c r="I9">
-        <v>3.423665765667716</v>
+        <v>3.279415897714353</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>9.15178253200984</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.50361815567747</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.272267306672867</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>11.98734367347774</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>8.49024954144369</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>11.53227185743851</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>12.35238757153956</v>
+        <v>14.70663702588884</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -851,52 +851,52 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.98614386499839</v>
+        <v>15.88559145394546</v>
       </c>
       <c r="C10">
-        <v>22.78281571823191</v>
+        <v>8.83246430518197</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>34.81845501346145</v>
+        <v>11.20202929697366</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>27.10424106976135</v>
       </c>
       <c r="G10">
-        <v>2.057458811773576</v>
+        <v>21.60517198546101</v>
       </c>
       <c r="H10">
-        <v>3.988946928542628</v>
+        <v>2.412386618614494</v>
       </c>
       <c r="I10">
-        <v>3.736638134123395</v>
+        <v>3.075082677689285</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>9.021277259390201</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.25318926932359</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>6.477452228995055</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>12.80734438194727</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>8.806610179435227</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>12.20114693158302</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.24911581074428</v>
+        <v>14.52181935174101</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -904,52 +904,52 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.98913199129817</v>
+        <v>16.35660895553498</v>
       </c>
       <c r="C11">
-        <v>23.5276983654226</v>
+        <v>9.037144481443846</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>28.19970325489762</v>
+        <v>10.40633690929123</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>25.8990286721892</v>
       </c>
       <c r="G11">
-        <v>2.056048955446314</v>
+        <v>20.39504080160902</v>
       </c>
       <c r="H11">
-        <v>4.363004919039285</v>
+        <v>3.221135447776656</v>
       </c>
       <c r="I11">
-        <v>3.813055882061238</v>
+        <v>3.034344900805197</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>8.78085891745196</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>14.70479899080775</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>6.768006285579152</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.30668775772535</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>8.244842644824526</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>11.99564076201241</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.60995957521653</v>
+        <v>13.97252162640419</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -957,52 +957,52 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.35004852353508</v>
+        <v>16.5114974079436</v>
       </c>
       <c r="C12">
-        <v>23.74901306499072</v>
+        <v>9.21082761886125</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.22741410821495</v>
+        <v>9.736984471304135</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>24.77503391940428</v>
       </c>
       <c r="G12">
-        <v>2.056138000304308</v>
+        <v>19.44338565456327</v>
       </c>
       <c r="H12">
-        <v>5.194176224208084</v>
+        <v>4.471873344004304</v>
       </c>
       <c r="I12">
-        <v>3.818597355070494</v>
+        <v>3.024043715014548</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>8.614684314663089</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>14.33128574532312</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>6.987953520899046</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.55824275197088</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>7.705743371848533</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>11.67419805636423</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.353023736880822</v>
+        <v>13.57080380609684</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1010,52 +1010,52 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.25088158632379</v>
+        <v>16.4295512854449</v>
       </c>
       <c r="C13">
-        <v>23.65023313447444</v>
+        <v>9.373166814653796</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>16.26867070894637</v>
+        <v>9.127594770817447</v>
       </c>
       <c r="F13">
-        <v>39.56266403260141</v>
+        <v>23.60471734288105</v>
       </c>
       <c r="G13">
-        <v>2.057413512068175</v>
+        <v>18.58756741734327</v>
       </c>
       <c r="H13">
-        <v>6.236608493544933</v>
+        <v>5.826166152050803</v>
       </c>
       <c r="I13">
-        <v>3.772551690495254</v>
+        <v>3.050557193477094</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>8.488448524951259</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>14.05234549410363</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.169225465145529</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.6458035158464</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>7.155472953398495</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>11.23880769241066</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>8.290899026637641</v>
+        <v>13.24083600218486</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1063,52 +1063,52 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.97254068092476</v>
+        <v>16.26232826604887</v>
       </c>
       <c r="C14">
-        <v>23.44830300179416</v>
+        <v>9.486722055243133</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>12.15185350365515</v>
+        <v>8.745760706037276</v>
       </c>
       <c r="F14">
-        <v>39.19167637503955</v>
+        <v>22.76066951788353</v>
       </c>
       <c r="G14">
-        <v>2.05881421359701</v>
+        <v>18.03437369585743</v>
       </c>
       <c r="H14">
-        <v>7.048640274489213</v>
+        <v>6.804018014243477</v>
       </c>
       <c r="I14">
-        <v>3.718820774063392</v>
+        <v>3.088495553468471</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>8.418364011127654</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.90263392855887</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.281458540770753</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>13.63507854242436</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>6.770177683128193</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>10.87813729870351</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7.679572363002444</v>
+        <v>13.04350781729949</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1116,52 +1116,52 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.80461385637753</v>
+        <v>16.16795524378556</v>
       </c>
       <c r="C15">
-        <v>23.34558237144737</v>
+        <v>9.511391335053601</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.15838202501593</v>
+        <v>8.658614452357932</v>
       </c>
       <c r="F15">
-        <v>38.96319309154519</v>
+        <v>22.5402747122689</v>
       </c>
       <c r="G15">
-        <v>2.059450794555832</v>
+        <v>17.91195434256144</v>
       </c>
       <c r="H15">
-        <v>7.235452416534259</v>
+        <v>7.033906295564045</v>
       </c>
       <c r="I15">
-        <v>3.694579654922206</v>
+        <v>3.110083458067146</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>8.408290291358291</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.88132601397363</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.299216414595653</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>13.59841958084037</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>6.674447981353493</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>10.76646484342699</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7.564588137226314</v>
+        <v>13.00708201878819</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1169,52 +1169,52 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.83697721518885</v>
+        <v>15.67016069624766</v>
       </c>
       <c r="C16">
-        <v>22.68254275152986</v>
+        <v>9.422801757331897</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.03148977964519</v>
+        <v>8.662493451298539</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>22.48607273615894</v>
       </c>
       <c r="G16">
-        <v>2.062423489103157</v>
+        <v>18.11432735460012</v>
       </c>
       <c r="H16">
-        <v>6.956584697444812</v>
+        <v>6.850815451133439</v>
       </c>
       <c r="I16">
-        <v>3.57248588621878</v>
+        <v>3.197404791138686</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>8.487591702282035</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>14.04167535739746</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.178842336909976</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>13.25046341890975</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>6.638806633387846</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>10.55357094263065</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>7.84554067513369</v>
+        <v>13.14921381322492</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1222,52 +1222,52 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.23249465694806</v>
+        <v>15.37263422373341</v>
       </c>
       <c r="C17">
-        <v>22.27711622888291</v>
+        <v>9.292117757334212</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.16979185832945</v>
+        <v>8.859404123284637</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>22.89640041283948</v>
       </c>
       <c r="G17">
-        <v>2.063986648275573</v>
+        <v>18.55695056425001</v>
       </c>
       <c r="H17">
-        <v>6.259689038952388</v>
+        <v>6.163358293373122</v>
       </c>
       <c r="I17">
-        <v>3.506740137722629</v>
+        <v>3.244956556902301</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>8.584928554815265</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>14.24054925336783</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.023607665408192</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.98449757869533</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>6.816727417896823</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>10.58751439270148</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8.34751817710624</v>
+        <v>13.360467923804</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1275,52 +1275,52 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.88806045113154</v>
+        <v>15.2265092629795</v>
       </c>
       <c r="C18">
-        <v>22.02207056761154</v>
+        <v>9.117143381891117</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.77846362769008</v>
+        <v>9.293656393536381</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>23.77178442076512</v>
       </c>
       <c r="G18">
-        <v>2.06435770034855</v>
+        <v>19.28866543639718</v>
       </c>
       <c r="H18">
-        <v>5.208191250710124</v>
+        <v>5.007498075799103</v>
       </c>
       <c r="I18">
-        <v>3.483770216728731</v>
+        <v>3.252584316040203</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>8.714062040418742</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>14.51480700930657</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>6.826855324131718</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>12.76071682524773</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>7.209222351900145</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>10.83680144747834</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.196277153378322</v>
+        <v>13.6688378721829</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1328,52 +1328,52 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.78573596160535</v>
+        <v>15.20521308362917</v>
       </c>
       <c r="C19">
-        <v>21.99724137916831</v>
+        <v>8.958066522963984</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>24.09017544112831</v>
+        <v>9.942344667674103</v>
       </c>
       <c r="F19">
-        <v>36.15172494157628</v>
+        <v>24.92901851589877</v>
       </c>
       <c r="G19">
-        <v>2.06355673304564</v>
+        <v>20.16978696120125</v>
       </c>
       <c r="H19">
-        <v>4.203674210356176</v>
+        <v>3.701153987643441</v>
       </c>
       <c r="I19">
-        <v>3.510109423029152</v>
+        <v>3.243488770028018</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>8.855126108602054</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>14.82946673432408</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>6.630169159550841</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.59914323456517</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>7.769620457341119</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>11.23840926916299</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.30637980383547</v>
+        <v>14.02273582943692</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1381,52 +1381,52 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.36994224364193</v>
+        <v>15.55260190876542</v>
       </c>
       <c r="C20">
-        <v>22.47117424633232</v>
+        <v>8.813603091175979</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>34.26195047441796</v>
+        <v>11.12145913463041</v>
       </c>
       <c r="F20">
-        <v>36.89155697731405</v>
+        <v>26.87536891307342</v>
       </c>
       <c r="G20">
-        <v>2.059490617123217</v>
+        <v>21.52417981727713</v>
       </c>
       <c r="H20">
-        <v>3.885903704122933</v>
+        <v>2.484034178536291</v>
       </c>
       <c r="I20">
-        <v>3.661417876351462</v>
+        <v>3.156029188004303</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.038384274482942</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.27482272515173</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>6.431781472484495</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>12.60942814585683</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>8.736356661435874</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>12.0310638672859</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.14207563652499</v>
+        <v>14.52696099404347</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1434,52 +1434,52 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.14031637185252</v>
+        <v>16.47077562593769</v>
       </c>
       <c r="C21">
-        <v>23.72247329305273</v>
+        <v>8.887626993996989</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>37.07871738542332</v>
+        <v>11.48519369793019</v>
       </c>
       <c r="F21">
-        <v>39.30090300329764</v>
+        <v>27.61584384880215</v>
       </c>
       <c r="G21">
-        <v>2.053352768375857</v>
+        <v>21.69390838705543</v>
       </c>
       <c r="H21">
-        <v>4.23328627974108</v>
+        <v>2.241580468291432</v>
       </c>
       <c r="I21">
-        <v>3.910458954364719</v>
+        <v>2.993104200112886</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>8.977298817579795</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>15.17447267396802</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>6.55247910592891</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>13.18783199874239</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>9.098741467252154</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>12.61433274156568</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.39798088908662</v>
+        <v>14.48449601882489</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1487,52 +1487,52 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.24582736873757</v>
+        <v>17.04698393829777</v>
       </c>
       <c r="C22">
-        <v>24.45927401169999</v>
+        <v>8.93686576920774</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>38.41072874542704</v>
+        <v>11.66713418721193</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>28.03936076113454</v>
       </c>
       <c r="G22">
-        <v>2.04949885807256</v>
+        <v>21.79029427208242</v>
       </c>
       <c r="H22">
-        <v>4.437500208399032</v>
+        <v>2.098334782855606</v>
       </c>
       <c r="I22">
-        <v>4.064962419585963</v>
+        <v>2.879965247055041</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>8.935714477489652</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>15.10428913084697</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>6.637448547571415</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>13.55568658625335</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>9.282691077157354</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>12.95275513467126</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.53785161000876</v>
+        <v>14.45197765234284</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1540,52 +1540,52 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.66081456157726</v>
+        <v>16.74805316632618</v>
       </c>
       <c r="C23">
-        <v>24.02204715964877</v>
+        <v>8.905460983822284</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>37.70533021189991</v>
+        <v>11.57359945161262</v>
       </c>
       <c r="F23">
-        <v>40.01414225038423</v>
+        <v>27.83614132857665</v>
       </c>
       <c r="G23">
-        <v>2.051535087094432</v>
+        <v>21.77402960004682</v>
       </c>
       <c r="H23">
-        <v>4.329204449148691</v>
+        <v>2.173791196415335</v>
       </c>
       <c r="I23">
-        <v>3.980112862467066</v>
+        <v>2.928880836558776</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>8.963545408406484</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>15.15690059669815</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>6.589802085061278</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>13.35642388430929</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>9.17915060413014</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>12.77154634855376</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.50695879399949</v>
+        <v>14.4836258242928</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1593,52 +1593,52 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.34433357278468</v>
+        <v>15.55214360427451</v>
       </c>
       <c r="C24">
-        <v>22.38175343983262</v>
+        <v>8.794298780822091</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>34.92431075091877</v>
+        <v>11.20768857987045</v>
       </c>
       <c r="F24">
-        <v>36.85121910575438</v>
+        <v>27.03344853880225</v>
       </c>
       <c r="G24">
-        <v>2.059365719521751</v>
+        <v>21.68201750205546</v>
       </c>
       <c r="H24">
-        <v>3.911645361426302</v>
+        <v>2.467268434068203</v>
       </c>
       <c r="I24">
-        <v>3.659562859030714</v>
+        <v>3.138148135109235</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>9.064654127533251</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.33954394063891</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>6.40943514405081</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>12.58046364344338</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>8.788013494924341</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>12.06511654753323</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.35302567892434</v>
+        <v>14.59219260672555</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1646,52 +1646,52 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.62906082532858</v>
+        <v>14.14612097516713</v>
       </c>
       <c r="C25">
-        <v>20.48661691095564</v>
+        <v>8.672508721095401</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>31.68916615529492</v>
+        <v>10.80072619093337</v>
       </c>
       <c r="F25">
-        <v>33.19272459126713</v>
+        <v>26.17990473743593</v>
       </c>
       <c r="G25">
-        <v>2.068037050274845</v>
+        <v>21.64125071872289</v>
       </c>
       <c r="H25">
-        <v>3.4454408294904</v>
+        <v>2.798396439901158</v>
       </c>
       <c r="I25">
-        <v>3.307174285318241</v>
+        <v>3.376585264907596</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>9.184627283275972</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.55474946414792</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.206664450335328</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>11.68488294402782</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>8.350042045178045</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>11.25677565376294</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>12.25882305573177</v>
+        <v>14.73549602496066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_1/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.02861932284055</v>
+        <v>13.02852407315812</v>
       </c>
       <c r="C2">
-        <v>8.569662946551231</v>
+        <v>8.118290232717213</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.50082289536295</v>
+        <v>10.45293733414045</v>
       </c>
       <c r="F2">
-        <v>25.62625348339416</v>
+        <v>25.15377253011518</v>
       </c>
       <c r="G2">
-        <v>21.74820039804689</v>
+        <v>20.44547658274263</v>
       </c>
       <c r="H2">
-        <v>3.053226816130268</v>
+        <v>2.941158565604153</v>
       </c>
       <c r="I2">
-        <v>3.538666733496659</v>
+        <v>3.380726395848589</v>
       </c>
       <c r="J2">
-        <v>9.296299595838775</v>
+        <v>9.380078095595547</v>
       </c>
       <c r="K2">
-        <v>15.76598550392082</v>
+        <v>15.21277459967934</v>
       </c>
       <c r="L2">
-        <v>6.044561292358783</v>
+        <v>12.23737266871991</v>
       </c>
       <c r="M2">
-        <v>10.96516862887253</v>
+        <v>10.21786768079124</v>
       </c>
       <c r="N2">
-        <v>7.999882477529624</v>
+        <v>6.014826938304147</v>
       </c>
       <c r="O2">
-        <v>10.61967451624643</v>
+        <v>11.03976659727503</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>8.19834139450681</v>
       </c>
       <c r="Q2">
-        <v>14.89822493704312</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>10.63728408286494</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>14.49201733678742</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.19841279471968</v>
+        <v>12.22264123436625</v>
       </c>
       <c r="C3">
-        <v>8.505250438515951</v>
+        <v>8.015869044396622</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.2877821554589</v>
+        <v>10.25148125130905</v>
       </c>
       <c r="F3">
-        <v>25.22709038634671</v>
+        <v>24.79602531220253</v>
       </c>
       <c r="G3">
-        <v>21.79468693089202</v>
+        <v>20.58676442187501</v>
       </c>
       <c r="H3">
-        <v>3.235460507316961</v>
+        <v>3.11399396583655</v>
       </c>
       <c r="I3">
-        <v>3.668822115300884</v>
+        <v>3.497464789347472</v>
       </c>
       <c r="J3">
-        <v>9.368985677659857</v>
+        <v>9.42786809885158</v>
       </c>
       <c r="K3">
-        <v>15.89597223509073</v>
+        <v>15.35695195284113</v>
       </c>
       <c r="L3">
-        <v>5.934134461009031</v>
+        <v>12.39898106565944</v>
       </c>
       <c r="M3">
-        <v>10.45483259187278</v>
+        <v>10.31387106839817</v>
       </c>
       <c r="N3">
-        <v>7.764859388382139</v>
+        <v>5.892901231059449</v>
       </c>
       <c r="O3">
-        <v>10.16918417561918</v>
+        <v>10.52063065312441</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.959198450397811</v>
       </c>
       <c r="Q3">
-        <v>14.99947803209967</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>10.18056775595132</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>14.61050819673492</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.6571689229932</v>
+        <v>11.69760996956529</v>
       </c>
       <c r="C4">
-        <v>8.465132433992158</v>
+        <v>7.952750419792247</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.1547045017551</v>
+        <v>10.12571887287274</v>
       </c>
       <c r="F4">
-        <v>24.98649753320893</v>
+        <v>24.58023272297598</v>
       </c>
       <c r="G4">
-        <v>21.83376799832902</v>
+        <v>20.68454880803885</v>
       </c>
       <c r="H4">
-        <v>3.351631712680584</v>
+        <v>3.224200305431248</v>
       </c>
       <c r="I4">
-        <v>3.752433245919112</v>
+        <v>3.572731654632683</v>
       </c>
       <c r="J4">
-        <v>9.415900871041279</v>
+        <v>9.458253032338956</v>
       </c>
       <c r="K4">
-        <v>15.97927707254488</v>
+        <v>15.44808613419591</v>
       </c>
       <c r="L4">
-        <v>5.864498096110779</v>
+        <v>12.50142758185889</v>
       </c>
       <c r="M4">
-        <v>10.12795294495377</v>
+        <v>10.38758676173225</v>
       </c>
       <c r="N4">
-        <v>7.618095185223442</v>
+        <v>5.81617175333197</v>
       </c>
       <c r="O4">
-        <v>9.882927674822842</v>
+        <v>10.18828851924285</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>7.810315814599063</v>
       </c>
       <c r="Q4">
-        <v>15.06663108283969</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.890164741061568</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>14.68733502104968</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.4264948371819</v>
+        <v>11.47391472856364</v>
       </c>
       <c r="C5">
-        <v>8.449667190587208</v>
+        <v>7.928485547063902</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.09897067073197</v>
+        <v>10.07303342513801</v>
       </c>
       <c r="F5">
-        <v>24.88304850659759</v>
+        <v>24.48678152475065</v>
       </c>
       <c r="G5">
-        <v>21.84264448833898</v>
+        <v>20.71757953627418</v>
       </c>
       <c r="H5">
-        <v>3.400304493701457</v>
+        <v>3.270387610643887</v>
       </c>
       <c r="I5">
-        <v>3.789932231622253</v>
+        <v>3.607237294093753</v>
       </c>
       <c r="J5">
-        <v>9.434054593366103</v>
+        <v>9.469350966091984</v>
       </c>
       <c r="K5">
-        <v>16.0100689393175</v>
+        <v>15.48198908481704</v>
       </c>
       <c r="L5">
-        <v>5.836278205758413</v>
+        <v>12.53995599364321</v>
       </c>
       <c r="M5">
-        <v>9.992753199387783</v>
+        <v>10.41947268803996</v>
       </c>
       <c r="N5">
-        <v>7.559466808557441</v>
+        <v>5.785084955483769</v>
       </c>
       <c r="O5">
-        <v>9.764546016544125</v>
+        <v>10.05085245265096</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>7.750895410690487</v>
       </c>
       <c r="Q5">
-        <v>15.09136624899707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.77000896100258</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>14.71587314459208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.38503062461939</v>
+        <v>11.43367340430366</v>
       </c>
       <c r="C6">
-        <v>8.448380540883353</v>
+        <v>7.926338573718001</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.08848603468998</v>
+        <v>10.06308259718743</v>
       </c>
       <c r="F6">
-        <v>24.85784314962572</v>
+        <v>24.46331459997213</v>
       </c>
       <c r="G6">
-        <v>21.83253168623203</v>
+        <v>20.71165951438453</v>
       </c>
       <c r="H6">
-        <v>3.408750433317556</v>
+        <v>3.278411809667491</v>
       </c>
       <c r="I6">
-        <v>3.799407368761256</v>
+        <v>3.616785761183783</v>
       </c>
       <c r="J6">
-        <v>9.435230635617753</v>
+        <v>9.469321671961081</v>
       </c>
       <c r="K6">
-        <v>16.01032178847491</v>
+        <v>15.48291419346017</v>
       </c>
       <c r="L6">
-        <v>5.832313056614922</v>
+        <v>12.54148991982761</v>
       </c>
       <c r="M6">
-        <v>9.971704980860254</v>
+        <v>10.42276674704989</v>
       </c>
       <c r="N6">
-        <v>7.55181923703266</v>
+        <v>5.780676649494933</v>
       </c>
       <c r="O6">
-        <v>9.74544234410715</v>
+        <v>10.0294255382542</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>7.743074732604393</v>
       </c>
       <c r="Q6">
-        <v>15.09083972823652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.750599143210994</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>14.71606800289764</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.64693513424012</v>
+        <v>11.6884568184627</v>
       </c>
       <c r="C7">
-        <v>8.468490510478913</v>
+        <v>7.955646099586679</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.15071139231475</v>
+        <v>10.12433051704811</v>
       </c>
       <c r="F7">
-        <v>24.96311165870429</v>
+        <v>24.54779260630687</v>
       </c>
       <c r="G7">
-        <v>21.80185631689224</v>
+        <v>20.70848027832274</v>
       </c>
       <c r="H7">
-        <v>3.35308009916354</v>
+        <v>3.22597211905149</v>
       </c>
       <c r="I7">
-        <v>3.761364205205981</v>
+        <v>3.583552756284156</v>
       </c>
       <c r="J7">
-        <v>9.411042797915927</v>
+        <v>9.428327423855677</v>
       </c>
       <c r="K7">
-        <v>15.96629298148388</v>
+        <v>15.43060786518612</v>
       </c>
       <c r="L7">
-        <v>5.866171921188112</v>
+        <v>12.48385398402378</v>
       </c>
       <c r="M7">
-        <v>10.13045622549646</v>
+        <v>10.37905018608471</v>
       </c>
       <c r="N7">
-        <v>7.62303527336434</v>
+        <v>5.818859645058657</v>
       </c>
       <c r="O7">
-        <v>9.883182320101144</v>
+        <v>10.18922265457283</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>7.816252309628796</v>
       </c>
       <c r="Q7">
-        <v>15.05412352022371</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.891723841130061</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>14.66779270440108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.74015199360798</v>
+        <v>12.75103011881023</v>
       </c>
       <c r="C8">
-        <v>8.552531681890457</v>
+        <v>8.083771719979488</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.42372555847815</v>
+        <v>10.38808367572011</v>
       </c>
       <c r="F8">
-        <v>25.45935841582407</v>
+        <v>24.97106789509427</v>
       </c>
       <c r="G8">
-        <v>21.71985173513531</v>
+        <v>20.63562881578079</v>
       </c>
       <c r="H8">
-        <v>3.116160368576153</v>
+        <v>3.002006900295807</v>
       </c>
       <c r="I8">
-        <v>3.593446981861867</v>
+        <v>3.434124313852805</v>
       </c>
       <c r="J8">
-        <v>9.314190376514247</v>
+        <v>9.309051352677216</v>
       </c>
       <c r="K8">
-        <v>15.79245141257441</v>
+        <v>15.22874724534626</v>
       </c>
       <c r="L8">
-        <v>6.009626388675274</v>
+        <v>12.2619050470399</v>
       </c>
       <c r="M8">
-        <v>10.79754986670433</v>
+        <v>10.22789789108532</v>
       </c>
       <c r="N8">
-        <v>7.92671304693677</v>
+        <v>5.979317942515539</v>
       </c>
       <c r="O8">
-        <v>10.4687056005847</v>
+        <v>10.86440154931545</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>8.127187407650323</v>
       </c>
       <c r="Q8">
-        <v>14.91518489089885</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>10.48841675477511</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>14.49126544153162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.64579886677154</v>
+        <v>14.60276334138232</v>
       </c>
       <c r="C9">
-        <v>8.706487891314044</v>
+        <v>8.330499595028767</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>10.94461038234597</v>
+        <v>10.88320656819883</v>
       </c>
       <c r="F9">
-        <v>26.50224095692857</v>
+        <v>25.90114230332505</v>
       </c>
       <c r="G9">
-        <v>21.70396085381348</v>
+        <v>20.43984086521638</v>
       </c>
       <c r="H9">
-        <v>2.68367595847089</v>
+        <v>2.592115578800346</v>
       </c>
       <c r="I9">
-        <v>3.279415897714353</v>
+        <v>3.151584562014251</v>
       </c>
       <c r="J9">
-        <v>9.15178253200984</v>
+        <v>9.179623934240345</v>
       </c>
       <c r="K9">
-        <v>15.50361815567747</v>
+        <v>14.89458776605633</v>
       </c>
       <c r="L9">
-        <v>6.272267306672867</v>
+        <v>11.89077808314833</v>
       </c>
       <c r="M9">
-        <v>11.98734367347774</v>
+        <v>10.07417829109734</v>
       </c>
       <c r="N9">
-        <v>8.49024954144369</v>
+        <v>6.271090378837893</v>
       </c>
       <c r="O9">
-        <v>11.53227185743851</v>
+        <v>12.07478405344426</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>8.703857109023023</v>
       </c>
       <c r="Q9">
-        <v>14.70663702588884</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>11.56628767393898</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>14.22748085133356</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.88559145394546</v>
+        <v>15.81434752556583</v>
       </c>
       <c r="C10">
-        <v>8.83246430518197</v>
+        <v>8.519235242379096</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.20202929697366</v>
+        <v>11.13792803932098</v>
       </c>
       <c r="F10">
-        <v>27.10424106976135</v>
+        <v>26.37866757964346</v>
       </c>
       <c r="G10">
-        <v>21.60517198546101</v>
+        <v>20.56136315129028</v>
       </c>
       <c r="H10">
-        <v>2.412386618614494</v>
+        <v>2.33816401961659</v>
       </c>
       <c r="I10">
-        <v>3.075082677689285</v>
+        <v>2.972404267681985</v>
       </c>
       <c r="J10">
-        <v>9.021277259390201</v>
+        <v>8.940199732326008</v>
       </c>
       <c r="K10">
-        <v>15.25318926932359</v>
+        <v>14.58709925905875</v>
       </c>
       <c r="L10">
-        <v>6.477452228995055</v>
+        <v>11.58022262545536</v>
       </c>
       <c r="M10">
-        <v>12.80734438194727</v>
+        <v>9.974357902209501</v>
       </c>
       <c r="N10">
-        <v>8.806610179435227</v>
+        <v>6.503488615870248</v>
       </c>
       <c r="O10">
-        <v>12.20114693158302</v>
+        <v>12.9007224075704</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>9.034965889359484</v>
       </c>
       <c r="Q10">
-        <v>14.52181935174101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>12.24946616621</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>13.96213786604878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.35660895553498</v>
+        <v>16.29910697563026</v>
       </c>
       <c r="C11">
-        <v>9.037144481443846</v>
+        <v>8.759753457517249</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>10.40633690929123</v>
+        <v>10.37160595609894</v>
       </c>
       <c r="F11">
-        <v>25.8990286721892</v>
+        <v>25.11199905244498</v>
       </c>
       <c r="G11">
-        <v>20.39504080160902</v>
+        <v>20.11543374107021</v>
       </c>
       <c r="H11">
-        <v>3.221135447776656</v>
+        <v>3.171366144504271</v>
       </c>
       <c r="I11">
-        <v>3.034344900805197</v>
+        <v>2.945289191179618</v>
       </c>
       <c r="J11">
-        <v>8.78085891745196</v>
+        <v>8.534536027208436</v>
       </c>
       <c r="K11">
-        <v>14.70479899080775</v>
+        <v>14.04817214606719</v>
       </c>
       <c r="L11">
-        <v>6.768006285579152</v>
+        <v>11.17617355308521</v>
       </c>
       <c r="M11">
-        <v>13.30668775772535</v>
+        <v>9.593668188986364</v>
       </c>
       <c r="N11">
-        <v>8.244842644824526</v>
+        <v>6.821595838525714</v>
       </c>
       <c r="O11">
-        <v>11.99564076201241</v>
+        <v>13.37935246439315</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>8.47124548719324</v>
       </c>
       <c r="Q11">
-        <v>13.97252162640419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>12.05447018726322</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.37243192019421</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.5114974079436</v>
+        <v>16.4689099780637</v>
       </c>
       <c r="C12">
-        <v>9.21082761886125</v>
+        <v>8.943480191618979</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.736984471304135</v>
+        <v>9.714904825971885</v>
       </c>
       <c r="F12">
-        <v>24.77503391940428</v>
+        <v>23.99514850603925</v>
       </c>
       <c r="G12">
-        <v>19.44338565456327</v>
+        <v>19.52919892358208</v>
       </c>
       <c r="H12">
-        <v>4.471873344004304</v>
+        <v>4.436807556910625</v>
       </c>
       <c r="I12">
-        <v>3.024043715014548</v>
+        <v>2.937572598151501</v>
       </c>
       <c r="J12">
-        <v>8.614684314663089</v>
+        <v>8.361643691808741</v>
       </c>
       <c r="K12">
-        <v>14.33128574532312</v>
+        <v>13.71473807471421</v>
       </c>
       <c r="L12">
-        <v>6.987953520899046</v>
+        <v>10.95159862048353</v>
       </c>
       <c r="M12">
-        <v>13.55824275197088</v>
+        <v>9.324477235584359</v>
       </c>
       <c r="N12">
-        <v>7.705743371848533</v>
+        <v>7.054494481313416</v>
       </c>
       <c r="O12">
-        <v>11.67419805636423</v>
+        <v>13.61585135151493</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>7.922907333828348</v>
       </c>
       <c r="Q12">
-        <v>13.57080380609684</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>11.73519079306097</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>12.98407229773762</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.4295512854449</v>
+        <v>16.40229888245739</v>
       </c>
       <c r="C13">
-        <v>9.373166814653796</v>
+        <v>9.109612212811586</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.127594770817447</v>
+        <v>9.104094707315273</v>
       </c>
       <c r="F13">
-        <v>23.60471734288105</v>
+        <v>22.9046785459513</v>
       </c>
       <c r="G13">
-        <v>18.58756741734327</v>
+        <v>18.60508130032074</v>
       </c>
       <c r="H13">
-        <v>5.826166152050803</v>
+        <v>5.79764293306425</v>
       </c>
       <c r="I13">
-        <v>3.050557193477094</v>
+        <v>2.960383998070577</v>
       </c>
       <c r="J13">
-        <v>8.488448524951259</v>
+        <v>8.321280456899293</v>
       </c>
       <c r="K13">
-        <v>14.05234549410363</v>
+        <v>13.50486613233087</v>
       </c>
       <c r="L13">
-        <v>7.169225465145529</v>
+        <v>10.8226826916123</v>
       </c>
       <c r="M13">
-        <v>13.6458035158464</v>
+        <v>9.125731367822844</v>
       </c>
       <c r="N13">
-        <v>7.155472953398495</v>
+        <v>7.233452782961948</v>
       </c>
       <c r="O13">
-        <v>11.23880769241066</v>
+        <v>13.69438314876881</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.355651221796347</v>
       </c>
       <c r="Q13">
-        <v>13.24083600218486</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>11.29294267764962</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>12.72065775193449</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.26232826604887</v>
+        <v>16.24629471161933</v>
       </c>
       <c r="C14">
-        <v>9.486722055243133</v>
+        <v>9.223980285582591</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.745760706037276</v>
+        <v>8.71750880332656</v>
       </c>
       <c r="F14">
-        <v>22.76066951788353</v>
+        <v>22.14658883532542</v>
       </c>
       <c r="G14">
-        <v>18.03437369585743</v>
+        <v>17.83058156851814</v>
       </c>
       <c r="H14">
-        <v>6.804018014243477</v>
+        <v>6.777771255631444</v>
       </c>
       <c r="I14">
-        <v>3.088495553468471</v>
+        <v>2.993466327853136</v>
       </c>
       <c r="J14">
-        <v>8.418364011127654</v>
+        <v>8.335893361382679</v>
       </c>
       <c r="K14">
-        <v>13.90263392855887</v>
+        <v>13.41081795746884</v>
       </c>
       <c r="L14">
-        <v>7.281458540770753</v>
+        <v>10.76794436710663</v>
       </c>
       <c r="M14">
-        <v>13.63507854242436</v>
+        <v>9.021779092514677</v>
       </c>
       <c r="N14">
-        <v>6.770177683128193</v>
+        <v>7.336330943959222</v>
       </c>
       <c r="O14">
-        <v>10.87813729870351</v>
+        <v>13.67983368193205</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.955862043672277</v>
       </c>
       <c r="Q14">
-        <v>13.04350781729949</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.92340269551024</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.58854771189966</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.16795524378556</v>
+        <v>16.1549488785707</v>
       </c>
       <c r="C15">
-        <v>9.511391335053601</v>
+        <v>9.24938304322769</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.658614452357932</v>
+        <v>8.628290789207613</v>
       </c>
       <c r="F15">
-        <v>22.5402747122689</v>
+        <v>21.9598512842878</v>
       </c>
       <c r="G15">
-        <v>17.91195434256144</v>
+        <v>17.5864918773982</v>
       </c>
       <c r="H15">
-        <v>7.033906295564045</v>
+        <v>7.007627912046593</v>
       </c>
       <c r="I15">
-        <v>3.110083458067146</v>
+        <v>3.013284038823317</v>
       </c>
       <c r="J15">
-        <v>8.408290291358291</v>
+        <v>8.358170223735941</v>
       </c>
       <c r="K15">
-        <v>13.88132601397363</v>
+        <v>13.4065712012806</v>
       </c>
       <c r="L15">
-        <v>7.299216414595653</v>
+        <v>10.76627904702169</v>
       </c>
       <c r="M15">
-        <v>13.59841958084037</v>
+        <v>9.008835756976412</v>
       </c>
       <c r="N15">
-        <v>6.674447981353493</v>
+        <v>7.348718549515095</v>
       </c>
       <c r="O15">
-        <v>10.76646484342699</v>
+        <v>13.64337236086967</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>6.855601944747389</v>
       </c>
       <c r="Q15">
-        <v>13.00708201878819</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>10.80781710517822</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.57593420752813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.67016069624766</v>
+        <v>15.66036381679769</v>
       </c>
       <c r="C16">
-        <v>9.422801757331897</v>
+        <v>9.16053896129505</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.662493451298539</v>
+        <v>8.624251223242627</v>
       </c>
       <c r="F16">
-        <v>22.48607273615894</v>
+        <v>22.01155125730546</v>
       </c>
       <c r="G16">
-        <v>18.11432735460012</v>
+        <v>17.25712003796962</v>
       </c>
       <c r="H16">
-        <v>6.850815451133439</v>
+        <v>6.819136459685109</v>
       </c>
       <c r="I16">
-        <v>3.197404791138686</v>
+        <v>3.088909991784118</v>
       </c>
       <c r="J16">
-        <v>8.487591702282035</v>
+        <v>8.55772566337134</v>
       </c>
       <c r="K16">
-        <v>14.04167535739746</v>
+        <v>13.59712317964308</v>
       </c>
       <c r="L16">
-        <v>7.178842336909976</v>
+        <v>10.8910189999259</v>
       </c>
       <c r="M16">
-        <v>13.25046341890975</v>
+        <v>9.136814511495556</v>
       </c>
       <c r="N16">
-        <v>6.638806633387846</v>
+        <v>7.203337400053761</v>
       </c>
       <c r="O16">
-        <v>10.55357094263065</v>
+        <v>13.30497115878833</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>6.81150011424468</v>
       </c>
       <c r="Q16">
-        <v>13.14921381322492</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>10.5803143162627</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.78457256299755</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.37263422373341</v>
+        <v>15.36026062671496</v>
       </c>
       <c r="C17">
-        <v>9.292117757334212</v>
+        <v>9.023623145369939</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.859404123284637</v>
+        <v>8.816220021676688</v>
       </c>
       <c r="F17">
-        <v>22.89640041283948</v>
+        <v>22.44754734397874</v>
       </c>
       <c r="G17">
-        <v>18.55695056425001</v>
+        <v>17.47430420378867</v>
       </c>
       <c r="H17">
-        <v>6.163358293373122</v>
+        <v>6.125253953038754</v>
       </c>
       <c r="I17">
-        <v>3.244956556902301</v>
+        <v>3.130593447357316</v>
       </c>
       <c r="J17">
-        <v>8.584928554815265</v>
+        <v>8.707727529901556</v>
       </c>
       <c r="K17">
-        <v>14.24054925336783</v>
+        <v>13.7910980269146</v>
       </c>
       <c r="L17">
-        <v>7.023607665408192</v>
+        <v>11.02546745619567</v>
       </c>
       <c r="M17">
-        <v>12.98449757869533</v>
+        <v>9.280410569129455</v>
       </c>
       <c r="N17">
-        <v>6.816727417896823</v>
+        <v>7.037267399226408</v>
       </c>
       <c r="O17">
-        <v>10.58751439270148</v>
+        <v>13.04669839596333</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>6.990782421915434</v>
       </c>
       <c r="Q17">
-        <v>13.360467923804</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>10.60947105144509</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>13.00862687691574</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.2265092629795</v>
+        <v>15.20449899347107</v>
       </c>
       <c r="C18">
-        <v>9.117143381891117</v>
+        <v>8.837684411580968</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.293656393536381</v>
+        <v>9.243215204378819</v>
       </c>
       <c r="F18">
-        <v>23.77178442076512</v>
+        <v>23.30038888623551</v>
       </c>
       <c r="G18">
-        <v>19.28866543639718</v>
+        <v>18.0709917196658</v>
       </c>
       <c r="H18">
-        <v>5.007498075799103</v>
+        <v>4.959458903286505</v>
       </c>
       <c r="I18">
-        <v>3.252584316040203</v>
+        <v>3.134590398205649</v>
       </c>
       <c r="J18">
-        <v>8.714062040418742</v>
+        <v>8.849883427469393</v>
       </c>
       <c r="K18">
-        <v>14.51480700930657</v>
+        <v>14.03541768161864</v>
       </c>
       <c r="L18">
-        <v>6.826855324131718</v>
+        <v>11.20384232392527</v>
       </c>
       <c r="M18">
-        <v>12.76071682524773</v>
+        <v>9.467638659833906</v>
       </c>
       <c r="N18">
-        <v>7.209222351900145</v>
+        <v>6.836769722768363</v>
       </c>
       <c r="O18">
-        <v>10.83680144747834</v>
+        <v>12.83219511165745</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>7.391265615532447</v>
       </c>
       <c r="Q18">
-        <v>13.6688378721829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>10.85973590319841</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>13.29812951330858</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.20521308362917</v>
+        <v>15.16821620664774</v>
       </c>
       <c r="C19">
-        <v>8.958066522963984</v>
+        <v>8.664791966413603</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.942344667674103</v>
+        <v>9.882297483620247</v>
       </c>
       <c r="F19">
-        <v>24.92901851589877</v>
+        <v>24.40470443891045</v>
       </c>
       <c r="G19">
-        <v>20.16978696120125</v>
+        <v>18.84993008765602</v>
       </c>
       <c r="H19">
-        <v>3.701153987643441</v>
+        <v>3.637782800337315</v>
       </c>
       <c r="I19">
-        <v>3.243488770028018</v>
+        <v>3.127536309958071</v>
       </c>
       <c r="J19">
-        <v>8.855126108602054</v>
+        <v>8.980566159412721</v>
       </c>
       <c r="K19">
-        <v>14.82946673432408</v>
+        <v>14.30293318542075</v>
       </c>
       <c r="L19">
-        <v>6.630169159550841</v>
+        <v>11.40381081347816</v>
       </c>
       <c r="M19">
-        <v>12.59914323456517</v>
+        <v>9.676054453494388</v>
       </c>
       <c r="N19">
-        <v>7.769620457341119</v>
+        <v>6.639651788954229</v>
       </c>
       <c r="O19">
-        <v>11.23840926916299</v>
+        <v>12.68116442710604</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>7.964141322896793</v>
       </c>
       <c r="Q19">
-        <v>14.02273582943692</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>11.26584020684282</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.6131450796097</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.55260190876542</v>
+        <v>15.4863475689759</v>
       </c>
       <c r="C20">
-        <v>8.813603091175979</v>
+        <v>8.498008755977128</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.12145913463041</v>
+        <v>11.04979449382466</v>
       </c>
       <c r="F20">
-        <v>26.87536891307342</v>
+        <v>26.21463162570672</v>
       </c>
       <c r="G20">
-        <v>21.52417981727713</v>
+        <v>20.21649616616774</v>
       </c>
       <c r="H20">
-        <v>2.484034178536291</v>
+        <v>2.40420670955809</v>
       </c>
       <c r="I20">
-        <v>3.156029188004303</v>
+        <v>3.051007801664627</v>
       </c>
       <c r="J20">
-        <v>9.038384274482942</v>
+        <v>9.067751009894392</v>
       </c>
       <c r="K20">
-        <v>15.27482272515173</v>
+        <v>14.64471654779848</v>
       </c>
       <c r="L20">
-        <v>6.431781472484495</v>
+        <v>11.64345486438106</v>
       </c>
       <c r="M20">
-        <v>12.60942814585683</v>
+        <v>9.978548708704887</v>
       </c>
       <c r="N20">
-        <v>8.736356661435874</v>
+        <v>6.447503637374373</v>
       </c>
       <c r="O20">
-        <v>12.0310638672859</v>
+        <v>12.70550552220633</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>8.956889313208524</v>
       </c>
       <c r="Q20">
-        <v>14.52696099404347</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>12.07179387570896</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>14.01705560476293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.47077562593769</v>
+        <v>16.39360616936919</v>
       </c>
       <c r="C21">
-        <v>8.887626993996989</v>
+        <v>8.576260817021543</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.48519369793019</v>
+        <v>11.45534275679221</v>
       </c>
       <c r="F21">
-        <v>27.61584384880215</v>
+        <v>26.68539884222589</v>
       </c>
       <c r="G21">
-        <v>21.69390838705543</v>
+        <v>21.67372713170697</v>
       </c>
       <c r="H21">
-        <v>2.241580468291432</v>
+        <v>2.179687387507186</v>
       </c>
       <c r="I21">
-        <v>2.993104200112886</v>
+        <v>2.91251747836268</v>
       </c>
       <c r="J21">
-        <v>8.977298817579795</v>
+        <v>8.559091133517187</v>
       </c>
       <c r="K21">
-        <v>15.17447267396802</v>
+        <v>14.39506495801029</v>
       </c>
       <c r="L21">
-        <v>6.55247910592891</v>
+        <v>11.40576049529275</v>
       </c>
       <c r="M21">
-        <v>13.18783199874239</v>
+        <v>9.903581853739423</v>
       </c>
       <c r="N21">
-        <v>9.098741467252154</v>
+        <v>6.607030527505422</v>
       </c>
       <c r="O21">
-        <v>12.61433274156568</v>
+        <v>13.2685446252734</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>9.353076490074526</v>
       </c>
       <c r="Q21">
-        <v>14.48449601882489</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>12.68639936099639</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>13.76208031910528</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.04698393829777</v>
+        <v>16.9651585747158</v>
       </c>
       <c r="C22">
-        <v>8.93686576920774</v>
+        <v>8.626938829963546</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>11.66713418721193</v>
+        <v>11.66981505285153</v>
       </c>
       <c r="F22">
-        <v>28.03936076113454</v>
+        <v>26.92588220667094</v>
       </c>
       <c r="G22">
-        <v>21.79029427208242</v>
+        <v>22.76931655276771</v>
       </c>
       <c r="H22">
-        <v>2.098334782855606</v>
+        <v>2.04777027735257</v>
       </c>
       <c r="I22">
-        <v>2.879965247055041</v>
+        <v>2.812552910387649</v>
       </c>
       <c r="J22">
-        <v>8.935714477489652</v>
+        <v>8.289939841611577</v>
       </c>
       <c r="K22">
-        <v>15.10428913084697</v>
+        <v>14.22049229459157</v>
       </c>
       <c r="L22">
-        <v>6.637448547571415</v>
+        <v>11.24856246267625</v>
       </c>
       <c r="M22">
-        <v>13.55568658625335</v>
+        <v>9.852687038810956</v>
       </c>
       <c r="N22">
-        <v>9.282691077157354</v>
+        <v>6.718946311984267</v>
       </c>
       <c r="O22">
-        <v>12.95275513467126</v>
+        <v>13.62499271084846</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>9.559606848897543</v>
       </c>
       <c r="Q22">
-        <v>14.45197765234284</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>13.04544427552691</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>13.57894416642253</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.74805316632618</v>
+        <v>16.66678522946337</v>
       </c>
       <c r="C23">
-        <v>8.905460983822284</v>
+        <v>8.597109261327457</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.57359945161262</v>
+        <v>11.5522641017448</v>
       </c>
       <c r="F23">
-        <v>27.83614132857665</v>
+        <v>26.84219106689218</v>
       </c>
       <c r="G23">
-        <v>21.77402960004682</v>
+        <v>22.05099540387907</v>
       </c>
       <c r="H23">
-        <v>2.173791196415335</v>
+        <v>2.116672570242891</v>
       </c>
       <c r="I23">
-        <v>2.928880836558776</v>
+        <v>2.851680869238302</v>
       </c>
       <c r="J23">
-        <v>8.963545408406484</v>
+        <v>8.462599805180298</v>
       </c>
       <c r="K23">
-        <v>15.15690059669815</v>
+        <v>14.33986470209947</v>
       </c>
       <c r="L23">
-        <v>6.589802085061278</v>
+        <v>11.34880096109317</v>
       </c>
       <c r="M23">
-        <v>13.35642388430929</v>
+        <v>9.902310215646617</v>
       </c>
       <c r="N23">
-        <v>9.17915060413014</v>
+        <v>6.654033298533562</v>
       </c>
       <c r="O23">
-        <v>12.77154634855376</v>
+        <v>13.43469249692406</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>9.441402727463986</v>
       </c>
       <c r="Q23">
-        <v>14.4836258242928</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>12.85057487331561</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>13.70939826786959</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.55214360427451</v>
+        <v>15.4843074439273</v>
       </c>
       <c r="C24">
-        <v>8.794298780822091</v>
+        <v>8.471192159866213</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.20768857987045</v>
+        <v>11.13463406308818</v>
       </c>
       <c r="F24">
-        <v>27.03344853880225</v>
+        <v>26.36792163382399</v>
       </c>
       <c r="G24">
-        <v>21.68201750205546</v>
+        <v>20.35513573817584</v>
       </c>
       <c r="H24">
-        <v>2.467268434068203</v>
+        <v>2.387294126031119</v>
       </c>
       <c r="I24">
-        <v>3.138148135109235</v>
+        <v>3.029783061136856</v>
       </c>
       <c r="J24">
-        <v>9.064654127533251</v>
+        <v>9.094605469751087</v>
       </c>
       <c r="K24">
-        <v>15.33954394063891</v>
+        <v>14.70245409276361</v>
       </c>
       <c r="L24">
-        <v>6.40943514405081</v>
+        <v>11.68673202578501</v>
       </c>
       <c r="M24">
-        <v>12.58046364344338</v>
+        <v>10.0231550991378</v>
       </c>
       <c r="N24">
-        <v>8.788013494924341</v>
+        <v>6.424132063698995</v>
       </c>
       <c r="O24">
-        <v>12.06511654753323</v>
+        <v>12.67764705965083</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>9.009907029887767</v>
       </c>
       <c r="Q24">
-        <v>14.59219260672555</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>12.10613223816379</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.07773084705773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.14612097516713</v>
+        <v>14.11580875195523</v>
       </c>
       <c r="C25">
-        <v>8.672508721095401</v>
+        <v>8.277866178278902</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>10.80072619093337</v>
+        <v>10.74275391501762</v>
       </c>
       <c r="F25">
-        <v>26.17990473743593</v>
+        <v>25.62287119893215</v>
       </c>
       <c r="G25">
-        <v>21.64125071872289</v>
+        <v>20.34506271399862</v>
       </c>
       <c r="H25">
-        <v>2.798396439901158</v>
+        <v>2.700396198473339</v>
       </c>
       <c r="I25">
-        <v>3.376585264907596</v>
+        <v>3.242645087591633</v>
       </c>
       <c r="J25">
-        <v>9.184627283275972</v>
+        <v>9.23911428363308</v>
       </c>
       <c r="K25">
-        <v>15.55474946414792</v>
+        <v>14.96737678586793</v>
       </c>
       <c r="L25">
-        <v>6.206664450335328</v>
+        <v>11.97603827672916</v>
       </c>
       <c r="M25">
-        <v>11.68488294402782</v>
+        <v>10.09159741426238</v>
       </c>
       <c r="N25">
-        <v>8.350042045178045</v>
+        <v>6.196501032900459</v>
       </c>
       <c r="O25">
-        <v>11.25677565376294</v>
+        <v>11.76873584211157</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>8.558182443639215</v>
       </c>
       <c r="Q25">
-        <v>14.73549602496066</v>
+        <v>11.28552039987873</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>14.28353852366598</v>
       </c>
     </row>
   </sheetData>
